--- a/src/main/resources/excel/POLAR_Testdaten_UKSH.xlsx
+++ b/src/main/resources/excel/POLAR_Testdaten_UKSH.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eigene Projekte\smith\TestDataGenerator\src\main\resources\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eigene Projekte\smith\TestDataGenerator\input - Vorlagen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAAE6F87-3144-413D-9040-94CC5751C506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB8D8947-EAEB-4596-A8D0-15A08B27A232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="8400" windowWidth="4755" windowHeight="3465" tabRatio="828" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="23640" tabRatio="828" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Person" sheetId="2" r:id="rId1"/>
@@ -1014,7 +1014,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3959" uniqueCount="957">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3973" uniqueCount="971">
   <si>
     <t>Patient-ID</t>
   </si>
@@ -3885,6 +3885,48 @@
   </si>
   <si>
     <t>Hauptdiagnose</t>
+  </si>
+  <si>
+    <t>Einwilligung</t>
+  </si>
+  <si>
+    <t>ja</t>
+  </si>
+  <si>
+    <t>nein</t>
+  </si>
+  <si>
+    <t>Datum Einwilligung</t>
+  </si>
+  <si>
+    <t>PDAT Einwilligung = Patientendaten erheben, speichern, nutzen (prospektiv)</t>
+  </si>
+  <si>
+    <t>KKDAT retro Einwilligung = Krankenkassendaten übertragen, speichern, nutzen (retrospektiv)</t>
+  </si>
+  <si>
+    <t>KKDAT Einwilligung = Krankenkassendaten übertragen, speichern, nutzen (prospektiv)</t>
+  </si>
+  <si>
+    <t>BIOMAT Einwilligung = Biomaterialien erheben, lagern, nutzen</t>
+  </si>
+  <si>
+    <t>BIOMAT Zusatz Einwilligung = Biomaterialien Zusatzentnahme</t>
+  </si>
+  <si>
+    <t>PDAT Einwilligung</t>
+  </si>
+  <si>
+    <t>KKDAT retro Einwilligung</t>
+  </si>
+  <si>
+    <t>KKDAT Einwilligung</t>
+  </si>
+  <si>
+    <t>BIOMAT Einwilligung</t>
+  </si>
+  <si>
+    <t>BIOMAT Zusatz Einwilligung</t>
   </si>
 </sst>
 </file>
@@ -4080,7 +4122,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4153,6 +4195,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4659,10 +4702,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:O501"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -4673,11 +4716,13 @@
     <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" customWidth="1"/>
-    <col min="9" max="9" width="52" customWidth="1"/>
+    <col min="8" max="8" width="59.42578125" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="14" width="13.42578125" customWidth="1"/>
+    <col min="15" max="15" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1">
+    <row r="1" spans="1:15" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4702,8 +4747,26 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="I1" s="60" t="s">
+        <v>960</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -4728,11 +4791,16 @@
       <c r="H2" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -4757,11 +4825,16 @@
       <c r="H3" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -4786,11 +4859,16 @@
       <c r="H4" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -4815,11 +4893,16 @@
       <c r="H5" t="s">
         <v>34</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:15">
       <c r="A6" s="18" t="s">
         <v>36</v>
       </c>
@@ -4844,24 +4927,3503 @@
       <c r="H6" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="J7" s="5" t="s">
+    <row r="7" spans="1:15">
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="J8" s="5" t="s">
+    <row r="8" spans="1:15">
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="J9" s="5" t="s">
+    <row r="9" spans="1:15">
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="5" t="s">
         <v>45</v>
       </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="5" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="5" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="5" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="5" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="5" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+    </row>
+    <row r="17" spans="10:14">
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+    </row>
+    <row r="18" spans="10:14">
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+    </row>
+    <row r="19" spans="10:14">
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+    </row>
+    <row r="20" spans="10:14">
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+    </row>
+    <row r="21" spans="10:14">
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+    </row>
+    <row r="22" spans="10:14">
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+    </row>
+    <row r="23" spans="10:14">
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+    </row>
+    <row r="24" spans="10:14">
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+    </row>
+    <row r="25" spans="10:14">
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+    </row>
+    <row r="26" spans="10:14">
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+    </row>
+    <row r="27" spans="10:14">
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+    </row>
+    <row r="28" spans="10:14">
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+    </row>
+    <row r="29" spans="10:14">
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+    </row>
+    <row r="30" spans="10:14">
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+    </row>
+    <row r="31" spans="10:14">
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+    </row>
+    <row r="32" spans="10:14">
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+    </row>
+    <row r="33" spans="10:14">
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+    </row>
+    <row r="34" spans="10:14">
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+    </row>
+    <row r="35" spans="10:14">
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+    </row>
+    <row r="36" spans="10:14">
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+    </row>
+    <row r="37" spans="10:14">
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+    </row>
+    <row r="38" spans="10:14">
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+    </row>
+    <row r="39" spans="10:14">
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+    </row>
+    <row r="40" spans="10:14">
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+    </row>
+    <row r="41" spans="10:14">
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+    </row>
+    <row r="42" spans="10:14">
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+    </row>
+    <row r="43" spans="10:14">
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+    </row>
+    <row r="44" spans="10:14">
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+    </row>
+    <row r="45" spans="10:14">
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+    </row>
+    <row r="46" spans="10:14">
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="4"/>
+    </row>
+    <row r="47" spans="10:14">
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4"/>
+    </row>
+    <row r="48" spans="10:14">
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4"/>
+    </row>
+    <row r="49" spans="10:14">
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="4"/>
+    </row>
+    <row r="50" spans="10:14">
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="4"/>
+      <c r="N50" s="4"/>
+    </row>
+    <row r="51" spans="10:14">
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="4"/>
+      <c r="N51" s="4"/>
+    </row>
+    <row r="52" spans="10:14">
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="4"/>
+      <c r="N52" s="4"/>
+    </row>
+    <row r="53" spans="10:14">
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
+      <c r="M53" s="4"/>
+      <c r="N53" s="4"/>
+    </row>
+    <row r="54" spans="10:14">
+      <c r="J54" s="4"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
+      <c r="M54" s="4"/>
+      <c r="N54" s="4"/>
+    </row>
+    <row r="55" spans="10:14">
+      <c r="J55" s="4"/>
+      <c r="K55" s="4"/>
+      <c r="L55" s="4"/>
+      <c r="M55" s="4"/>
+      <c r="N55" s="4"/>
+    </row>
+    <row r="56" spans="10:14">
+      <c r="J56" s="4"/>
+      <c r="K56" s="4"/>
+      <c r="L56" s="4"/>
+      <c r="M56" s="4"/>
+      <c r="N56" s="4"/>
+    </row>
+    <row r="57" spans="10:14">
+      <c r="J57" s="4"/>
+      <c r="K57" s="4"/>
+      <c r="L57" s="4"/>
+      <c r="M57" s="4"/>
+      <c r="N57" s="4"/>
+    </row>
+    <row r="58" spans="10:14">
+      <c r="J58" s="4"/>
+      <c r="K58" s="4"/>
+      <c r="L58" s="4"/>
+      <c r="M58" s="4"/>
+      <c r="N58" s="4"/>
+    </row>
+    <row r="59" spans="10:14">
+      <c r="J59" s="4"/>
+      <c r="K59" s="4"/>
+      <c r="L59" s="4"/>
+      <c r="M59" s="4"/>
+      <c r="N59" s="4"/>
+    </row>
+    <row r="60" spans="10:14">
+      <c r="J60" s="4"/>
+      <c r="K60" s="4"/>
+      <c r="L60" s="4"/>
+      <c r="M60" s="4"/>
+      <c r="N60" s="4"/>
+    </row>
+    <row r="61" spans="10:14">
+      <c r="J61" s="4"/>
+      <c r="K61" s="4"/>
+      <c r="L61" s="4"/>
+      <c r="M61" s="4"/>
+      <c r="N61" s="4"/>
+    </row>
+    <row r="62" spans="10:14">
+      <c r="J62" s="4"/>
+      <c r="K62" s="4"/>
+      <c r="L62" s="4"/>
+      <c r="M62" s="4"/>
+      <c r="N62" s="4"/>
+    </row>
+    <row r="63" spans="10:14">
+      <c r="J63" s="4"/>
+      <c r="K63" s="4"/>
+      <c r="L63" s="4"/>
+      <c r="M63" s="4"/>
+      <c r="N63" s="4"/>
+    </row>
+    <row r="64" spans="10:14">
+      <c r="J64" s="4"/>
+      <c r="K64" s="4"/>
+      <c r="L64" s="4"/>
+      <c r="M64" s="4"/>
+      <c r="N64" s="4"/>
+    </row>
+    <row r="65" spans="10:14">
+      <c r="J65" s="4"/>
+      <c r="K65" s="4"/>
+      <c r="L65" s="4"/>
+      <c r="M65" s="4"/>
+      <c r="N65" s="4"/>
+    </row>
+    <row r="66" spans="10:14">
+      <c r="J66" s="4"/>
+      <c r="K66" s="4"/>
+      <c r="L66" s="4"/>
+      <c r="M66" s="4"/>
+      <c r="N66" s="4"/>
+    </row>
+    <row r="67" spans="10:14">
+      <c r="J67" s="4"/>
+      <c r="K67" s="4"/>
+      <c r="L67" s="4"/>
+      <c r="M67" s="4"/>
+      <c r="N67" s="4"/>
+    </row>
+    <row r="68" spans="10:14">
+      <c r="J68" s="4"/>
+      <c r="K68" s="4"/>
+      <c r="L68" s="4"/>
+      <c r="M68" s="4"/>
+      <c r="N68" s="4"/>
+    </row>
+    <row r="69" spans="10:14">
+      <c r="J69" s="4"/>
+      <c r="K69" s="4"/>
+      <c r="L69" s="4"/>
+      <c r="M69" s="4"/>
+      <c r="N69" s="4"/>
+    </row>
+    <row r="70" spans="10:14">
+      <c r="J70" s="4"/>
+      <c r="K70" s="4"/>
+      <c r="L70" s="4"/>
+      <c r="M70" s="4"/>
+      <c r="N70" s="4"/>
+    </row>
+    <row r="71" spans="10:14">
+      <c r="J71" s="4"/>
+      <c r="K71" s="4"/>
+      <c r="L71" s="4"/>
+      <c r="M71" s="4"/>
+      <c r="N71" s="4"/>
+    </row>
+    <row r="72" spans="10:14">
+      <c r="J72" s="4"/>
+      <c r="K72" s="4"/>
+      <c r="L72" s="4"/>
+      <c r="M72" s="4"/>
+      <c r="N72" s="4"/>
+    </row>
+    <row r="73" spans="10:14">
+      <c r="J73" s="4"/>
+      <c r="K73" s="4"/>
+      <c r="L73" s="4"/>
+      <c r="M73" s="4"/>
+      <c r="N73" s="4"/>
+    </row>
+    <row r="74" spans="10:14">
+      <c r="J74" s="4"/>
+      <c r="K74" s="4"/>
+      <c r="L74" s="4"/>
+      <c r="M74" s="4"/>
+      <c r="N74" s="4"/>
+    </row>
+    <row r="75" spans="10:14">
+      <c r="J75" s="4"/>
+      <c r="K75" s="4"/>
+      <c r="L75" s="4"/>
+      <c r="M75" s="4"/>
+      <c r="N75" s="4"/>
+    </row>
+    <row r="76" spans="10:14">
+      <c r="J76" s="4"/>
+      <c r="K76" s="4"/>
+      <c r="L76" s="4"/>
+      <c r="M76" s="4"/>
+      <c r="N76" s="4"/>
+    </row>
+    <row r="77" spans="10:14">
+      <c r="J77" s="4"/>
+      <c r="K77" s="4"/>
+      <c r="L77" s="4"/>
+      <c r="M77" s="4"/>
+      <c r="N77" s="4"/>
+    </row>
+    <row r="78" spans="10:14">
+      <c r="J78" s="4"/>
+      <c r="K78" s="4"/>
+      <c r="L78" s="4"/>
+      <c r="M78" s="4"/>
+      <c r="N78" s="4"/>
+    </row>
+    <row r="79" spans="10:14">
+      <c r="J79" s="4"/>
+      <c r="K79" s="4"/>
+      <c r="L79" s="4"/>
+      <c r="M79" s="4"/>
+      <c r="N79" s="4"/>
+    </row>
+    <row r="80" spans="10:14">
+      <c r="J80" s="4"/>
+      <c r="K80" s="4"/>
+      <c r="L80" s="4"/>
+      <c r="M80" s="4"/>
+      <c r="N80" s="4"/>
+    </row>
+    <row r="81" spans="10:14">
+      <c r="J81" s="4"/>
+      <c r="K81" s="4"/>
+      <c r="L81" s="4"/>
+      <c r="M81" s="4"/>
+      <c r="N81" s="4"/>
+    </row>
+    <row r="82" spans="10:14">
+      <c r="J82" s="4"/>
+      <c r="K82" s="4"/>
+      <c r="L82" s="4"/>
+      <c r="M82" s="4"/>
+      <c r="N82" s="4"/>
+    </row>
+    <row r="83" spans="10:14">
+      <c r="J83" s="4"/>
+      <c r="K83" s="4"/>
+      <c r="L83" s="4"/>
+      <c r="M83" s="4"/>
+      <c r="N83" s="4"/>
+    </row>
+    <row r="84" spans="10:14">
+      <c r="J84" s="4"/>
+      <c r="K84" s="4"/>
+      <c r="L84" s="4"/>
+      <c r="M84" s="4"/>
+      <c r="N84" s="4"/>
+    </row>
+    <row r="85" spans="10:14">
+      <c r="J85" s="4"/>
+      <c r="K85" s="4"/>
+      <c r="L85" s="4"/>
+      <c r="M85" s="4"/>
+      <c r="N85" s="4"/>
+    </row>
+    <row r="86" spans="10:14">
+      <c r="J86" s="4"/>
+      <c r="K86" s="4"/>
+      <c r="L86" s="4"/>
+      <c r="M86" s="4"/>
+      <c r="N86" s="4"/>
+    </row>
+    <row r="87" spans="10:14">
+      <c r="J87" s="4"/>
+      <c r="K87" s="4"/>
+      <c r="L87" s="4"/>
+      <c r="M87" s="4"/>
+      <c r="N87" s="4"/>
+    </row>
+    <row r="88" spans="10:14">
+      <c r="J88" s="4"/>
+      <c r="K88" s="4"/>
+      <c r="L88" s="4"/>
+      <c r="M88" s="4"/>
+      <c r="N88" s="4"/>
+    </row>
+    <row r="89" spans="10:14">
+      <c r="J89" s="4"/>
+      <c r="K89" s="4"/>
+      <c r="L89" s="4"/>
+      <c r="M89" s="4"/>
+      <c r="N89" s="4"/>
+    </row>
+    <row r="90" spans="10:14">
+      <c r="J90" s="4"/>
+      <c r="K90" s="4"/>
+      <c r="L90" s="4"/>
+      <c r="M90" s="4"/>
+      <c r="N90" s="4"/>
+    </row>
+    <row r="91" spans="10:14">
+      <c r="J91" s="4"/>
+      <c r="K91" s="4"/>
+      <c r="L91" s="4"/>
+      <c r="M91" s="4"/>
+      <c r="N91" s="4"/>
+    </row>
+    <row r="92" spans="10:14">
+      <c r="J92" s="4"/>
+      <c r="K92" s="4"/>
+      <c r="L92" s="4"/>
+      <c r="M92" s="4"/>
+      <c r="N92" s="4"/>
+    </row>
+    <row r="93" spans="10:14">
+      <c r="J93" s="4"/>
+      <c r="K93" s="4"/>
+      <c r="L93" s="4"/>
+      <c r="M93" s="4"/>
+      <c r="N93" s="4"/>
+    </row>
+    <row r="94" spans="10:14">
+      <c r="J94" s="4"/>
+      <c r="K94" s="4"/>
+      <c r="L94" s="4"/>
+      <c r="M94" s="4"/>
+      <c r="N94" s="4"/>
+    </row>
+    <row r="95" spans="10:14">
+      <c r="J95" s="4"/>
+      <c r="K95" s="4"/>
+      <c r="L95" s="4"/>
+      <c r="M95" s="4"/>
+      <c r="N95" s="4"/>
+    </row>
+    <row r="96" spans="10:14">
+      <c r="J96" s="4"/>
+      <c r="K96" s="4"/>
+      <c r="L96" s="4"/>
+      <c r="M96" s="4"/>
+      <c r="N96" s="4"/>
+    </row>
+    <row r="97" spans="10:14">
+      <c r="J97" s="4"/>
+      <c r="K97" s="4"/>
+      <c r="L97" s="4"/>
+      <c r="M97" s="4"/>
+      <c r="N97" s="4"/>
+    </row>
+    <row r="98" spans="10:14">
+      <c r="J98" s="4"/>
+      <c r="K98" s="4"/>
+      <c r="L98" s="4"/>
+      <c r="M98" s="4"/>
+      <c r="N98" s="4"/>
+    </row>
+    <row r="99" spans="10:14">
+      <c r="J99" s="4"/>
+      <c r="K99" s="4"/>
+      <c r="L99" s="4"/>
+      <c r="M99" s="4"/>
+      <c r="N99" s="4"/>
+    </row>
+    <row r="100" spans="10:14">
+      <c r="J100" s="4"/>
+      <c r="K100" s="4"/>
+      <c r="L100" s="4"/>
+      <c r="M100" s="4"/>
+      <c r="N100" s="4"/>
+    </row>
+    <row r="101" spans="10:14">
+      <c r="J101" s="4"/>
+      <c r="K101" s="4"/>
+      <c r="L101" s="4"/>
+      <c r="M101" s="4"/>
+      <c r="N101" s="4"/>
+    </row>
+    <row r="102" spans="10:14">
+      <c r="J102" s="4"/>
+      <c r="K102" s="4"/>
+      <c r="L102" s="4"/>
+      <c r="M102" s="4"/>
+      <c r="N102" s="4"/>
+    </row>
+    <row r="103" spans="10:14">
+      <c r="J103" s="4"/>
+      <c r="K103" s="4"/>
+      <c r="L103" s="4"/>
+      <c r="M103" s="4"/>
+      <c r="N103" s="4"/>
+    </row>
+    <row r="104" spans="10:14">
+      <c r="J104" s="4"/>
+      <c r="K104" s="4"/>
+      <c r="L104" s="4"/>
+      <c r="M104" s="4"/>
+      <c r="N104" s="4"/>
+    </row>
+    <row r="105" spans="10:14">
+      <c r="J105" s="4"/>
+      <c r="K105" s="4"/>
+      <c r="L105" s="4"/>
+      <c r="M105" s="4"/>
+      <c r="N105" s="4"/>
+    </row>
+    <row r="106" spans="10:14">
+      <c r="J106" s="4"/>
+      <c r="K106" s="4"/>
+      <c r="L106" s="4"/>
+      <c r="M106" s="4"/>
+      <c r="N106" s="4"/>
+    </row>
+    <row r="107" spans="10:14">
+      <c r="J107" s="4"/>
+      <c r="K107" s="4"/>
+      <c r="L107" s="4"/>
+      <c r="M107" s="4"/>
+      <c r="N107" s="4"/>
+    </row>
+    <row r="108" spans="10:14">
+      <c r="J108" s="4"/>
+      <c r="K108" s="4"/>
+      <c r="L108" s="4"/>
+      <c r="M108" s="4"/>
+      <c r="N108" s="4"/>
+    </row>
+    <row r="109" spans="10:14">
+      <c r="J109" s="4"/>
+      <c r="K109" s="4"/>
+      <c r="L109" s="4"/>
+      <c r="M109" s="4"/>
+      <c r="N109" s="4"/>
+    </row>
+    <row r="110" spans="10:14">
+      <c r="J110" s="4"/>
+      <c r="K110" s="4"/>
+      <c r="L110" s="4"/>
+      <c r="M110" s="4"/>
+      <c r="N110" s="4"/>
+    </row>
+    <row r="111" spans="10:14">
+      <c r="J111" s="4"/>
+      <c r="K111" s="4"/>
+      <c r="L111" s="4"/>
+      <c r="M111" s="4"/>
+      <c r="N111" s="4"/>
+    </row>
+    <row r="112" spans="10:14">
+      <c r="J112" s="4"/>
+      <c r="K112" s="4"/>
+      <c r="L112" s="4"/>
+      <c r="M112" s="4"/>
+      <c r="N112" s="4"/>
+    </row>
+    <row r="113" spans="10:14">
+      <c r="J113" s="4"/>
+      <c r="K113" s="4"/>
+      <c r="L113" s="4"/>
+      <c r="M113" s="4"/>
+      <c r="N113" s="4"/>
+    </row>
+    <row r="114" spans="10:14">
+      <c r="J114" s="4"/>
+      <c r="K114" s="4"/>
+      <c r="L114" s="4"/>
+      <c r="M114" s="4"/>
+      <c r="N114" s="4"/>
+    </row>
+    <row r="115" spans="10:14">
+      <c r="J115" s="4"/>
+      <c r="K115" s="4"/>
+      <c r="L115" s="4"/>
+      <c r="M115" s="4"/>
+      <c r="N115" s="4"/>
+    </row>
+    <row r="116" spans="10:14">
+      <c r="J116" s="4"/>
+      <c r="K116" s="4"/>
+      <c r="L116" s="4"/>
+      <c r="M116" s="4"/>
+      <c r="N116" s="4"/>
+    </row>
+    <row r="117" spans="10:14">
+      <c r="J117" s="4"/>
+      <c r="K117" s="4"/>
+      <c r="L117" s="4"/>
+      <c r="M117" s="4"/>
+      <c r="N117" s="4"/>
+    </row>
+    <row r="118" spans="10:14">
+      <c r="J118" s="4"/>
+      <c r="K118" s="4"/>
+      <c r="L118" s="4"/>
+      <c r="M118" s="4"/>
+      <c r="N118" s="4"/>
+    </row>
+    <row r="119" spans="10:14">
+      <c r="J119" s="4"/>
+      <c r="K119" s="4"/>
+      <c r="L119" s="4"/>
+      <c r="M119" s="4"/>
+      <c r="N119" s="4"/>
+    </row>
+    <row r="120" spans="10:14">
+      <c r="J120" s="4"/>
+      <c r="K120" s="4"/>
+      <c r="L120" s="4"/>
+      <c r="M120" s="4"/>
+      <c r="N120" s="4"/>
+    </row>
+    <row r="121" spans="10:14">
+      <c r="J121" s="4"/>
+      <c r="K121" s="4"/>
+      <c r="L121" s="4"/>
+      <c r="M121" s="4"/>
+      <c r="N121" s="4"/>
+    </row>
+    <row r="122" spans="10:14">
+      <c r="J122" s="4"/>
+      <c r="K122" s="4"/>
+      <c r="L122" s="4"/>
+      <c r="M122" s="4"/>
+      <c r="N122" s="4"/>
+    </row>
+    <row r="123" spans="10:14">
+      <c r="J123" s="4"/>
+      <c r="K123" s="4"/>
+      <c r="L123" s="4"/>
+      <c r="M123" s="4"/>
+      <c r="N123" s="4"/>
+    </row>
+    <row r="124" spans="10:14">
+      <c r="J124" s="4"/>
+      <c r="K124" s="4"/>
+      <c r="L124" s="4"/>
+      <c r="M124" s="4"/>
+      <c r="N124" s="4"/>
+    </row>
+    <row r="125" spans="10:14">
+      <c r="J125" s="4"/>
+      <c r="K125" s="4"/>
+      <c r="L125" s="4"/>
+      <c r="M125" s="4"/>
+      <c r="N125" s="4"/>
+    </row>
+    <row r="126" spans="10:14">
+      <c r="J126" s="4"/>
+      <c r="K126" s="4"/>
+      <c r="L126" s="4"/>
+      <c r="M126" s="4"/>
+      <c r="N126" s="4"/>
+    </row>
+    <row r="127" spans="10:14">
+      <c r="J127" s="4"/>
+      <c r="K127" s="4"/>
+      <c r="L127" s="4"/>
+      <c r="M127" s="4"/>
+      <c r="N127" s="4"/>
+    </row>
+    <row r="128" spans="10:14">
+      <c r="J128" s="4"/>
+      <c r="K128" s="4"/>
+      <c r="L128" s="4"/>
+      <c r="M128" s="4"/>
+      <c r="N128" s="4"/>
+    </row>
+    <row r="129" spans="10:14">
+      <c r="J129" s="4"/>
+      <c r="K129" s="4"/>
+      <c r="L129" s="4"/>
+      <c r="M129" s="4"/>
+      <c r="N129" s="4"/>
+    </row>
+    <row r="130" spans="10:14">
+      <c r="J130" s="4"/>
+      <c r="K130" s="4"/>
+      <c r="L130" s="4"/>
+      <c r="M130" s="4"/>
+      <c r="N130" s="4"/>
+    </row>
+    <row r="131" spans="10:14">
+      <c r="J131" s="4"/>
+      <c r="K131" s="4"/>
+      <c r="L131" s="4"/>
+      <c r="M131" s="4"/>
+      <c r="N131" s="4"/>
+    </row>
+    <row r="132" spans="10:14">
+      <c r="J132" s="4"/>
+      <c r="K132" s="4"/>
+      <c r="L132" s="4"/>
+      <c r="M132" s="4"/>
+      <c r="N132" s="4"/>
+    </row>
+    <row r="133" spans="10:14">
+      <c r="J133" s="4"/>
+      <c r="K133" s="4"/>
+      <c r="L133" s="4"/>
+      <c r="M133" s="4"/>
+      <c r="N133" s="4"/>
+    </row>
+    <row r="134" spans="10:14">
+      <c r="J134" s="4"/>
+      <c r="K134" s="4"/>
+      <c r="L134" s="4"/>
+      <c r="M134" s="4"/>
+      <c r="N134" s="4"/>
+    </row>
+    <row r="135" spans="10:14">
+      <c r="J135" s="4"/>
+      <c r="K135" s="4"/>
+      <c r="L135" s="4"/>
+      <c r="M135" s="4"/>
+      <c r="N135" s="4"/>
+    </row>
+    <row r="136" spans="10:14">
+      <c r="J136" s="4"/>
+      <c r="K136" s="4"/>
+      <c r="L136" s="4"/>
+      <c r="M136" s="4"/>
+      <c r="N136" s="4"/>
+    </row>
+    <row r="137" spans="10:14">
+      <c r="J137" s="4"/>
+      <c r="K137" s="4"/>
+      <c r="L137" s="4"/>
+      <c r="M137" s="4"/>
+      <c r="N137" s="4"/>
+    </row>
+    <row r="138" spans="10:14">
+      <c r="J138" s="4"/>
+      <c r="K138" s="4"/>
+      <c r="L138" s="4"/>
+      <c r="M138" s="4"/>
+      <c r="N138" s="4"/>
+    </row>
+    <row r="139" spans="10:14">
+      <c r="J139" s="4"/>
+      <c r="K139" s="4"/>
+      <c r="L139" s="4"/>
+      <c r="M139" s="4"/>
+      <c r="N139" s="4"/>
+    </row>
+    <row r="140" spans="10:14">
+      <c r="J140" s="4"/>
+      <c r="K140" s="4"/>
+      <c r="L140" s="4"/>
+      <c r="M140" s="4"/>
+      <c r="N140" s="4"/>
+    </row>
+    <row r="141" spans="10:14">
+      <c r="J141" s="4"/>
+      <c r="K141" s="4"/>
+      <c r="L141" s="4"/>
+      <c r="M141" s="4"/>
+      <c r="N141" s="4"/>
+    </row>
+    <row r="142" spans="10:14">
+      <c r="J142" s="4"/>
+      <c r="K142" s="4"/>
+      <c r="L142" s="4"/>
+      <c r="M142" s="4"/>
+      <c r="N142" s="4"/>
+    </row>
+    <row r="143" spans="10:14">
+      <c r="J143" s="4"/>
+      <c r="K143" s="4"/>
+      <c r="L143" s="4"/>
+      <c r="M143" s="4"/>
+      <c r="N143" s="4"/>
+    </row>
+    <row r="144" spans="10:14">
+      <c r="J144" s="4"/>
+      <c r="K144" s="4"/>
+      <c r="L144" s="4"/>
+      <c r="M144" s="4"/>
+      <c r="N144" s="4"/>
+    </row>
+    <row r="145" spans="10:14">
+      <c r="J145" s="4"/>
+      <c r="K145" s="4"/>
+      <c r="L145" s="4"/>
+      <c r="M145" s="4"/>
+      <c r="N145" s="4"/>
+    </row>
+    <row r="146" spans="10:14">
+      <c r="J146" s="4"/>
+      <c r="K146" s="4"/>
+      <c r="L146" s="4"/>
+      <c r="M146" s="4"/>
+      <c r="N146" s="4"/>
+    </row>
+    <row r="147" spans="10:14">
+      <c r="J147" s="4"/>
+      <c r="K147" s="4"/>
+      <c r="L147" s="4"/>
+      <c r="M147" s="4"/>
+      <c r="N147" s="4"/>
+    </row>
+    <row r="148" spans="10:14">
+      <c r="J148" s="4"/>
+      <c r="K148" s="4"/>
+      <c r="L148" s="4"/>
+      <c r="M148" s="4"/>
+      <c r="N148" s="4"/>
+    </row>
+    <row r="149" spans="10:14">
+      <c r="J149" s="4"/>
+      <c r="K149" s="4"/>
+      <c r="L149" s="4"/>
+      <c r="M149" s="4"/>
+      <c r="N149" s="4"/>
+    </row>
+    <row r="150" spans="10:14">
+      <c r="J150" s="4"/>
+      <c r="K150" s="4"/>
+      <c r="L150" s="4"/>
+      <c r="M150" s="4"/>
+      <c r="N150" s="4"/>
+    </row>
+    <row r="151" spans="10:14">
+      <c r="J151" s="4"/>
+      <c r="K151" s="4"/>
+      <c r="L151" s="4"/>
+      <c r="M151" s="4"/>
+      <c r="N151" s="4"/>
+    </row>
+    <row r="152" spans="10:14">
+      <c r="J152" s="4"/>
+      <c r="K152" s="4"/>
+      <c r="L152" s="4"/>
+      <c r="M152" s="4"/>
+      <c r="N152" s="4"/>
+    </row>
+    <row r="153" spans="10:14">
+      <c r="J153" s="4"/>
+      <c r="K153" s="4"/>
+      <c r="L153" s="4"/>
+      <c r="M153" s="4"/>
+      <c r="N153" s="4"/>
+    </row>
+    <row r="154" spans="10:14">
+      <c r="J154" s="4"/>
+      <c r="K154" s="4"/>
+      <c r="L154" s="4"/>
+      <c r="M154" s="4"/>
+      <c r="N154" s="4"/>
+    </row>
+    <row r="155" spans="10:14">
+      <c r="J155" s="4"/>
+      <c r="K155" s="4"/>
+      <c r="L155" s="4"/>
+      <c r="M155" s="4"/>
+      <c r="N155" s="4"/>
+    </row>
+    <row r="156" spans="10:14">
+      <c r="J156" s="4"/>
+      <c r="K156" s="4"/>
+      <c r="L156" s="4"/>
+      <c r="M156" s="4"/>
+      <c r="N156" s="4"/>
+    </row>
+    <row r="157" spans="10:14">
+      <c r="J157" s="4"/>
+      <c r="K157" s="4"/>
+      <c r="L157" s="4"/>
+      <c r="M157" s="4"/>
+      <c r="N157" s="4"/>
+    </row>
+    <row r="158" spans="10:14">
+      <c r="J158" s="4"/>
+      <c r="K158" s="4"/>
+      <c r="L158" s="4"/>
+      <c r="M158" s="4"/>
+      <c r="N158" s="4"/>
+    </row>
+    <row r="159" spans="10:14">
+      <c r="J159" s="4"/>
+      <c r="K159" s="4"/>
+      <c r="L159" s="4"/>
+      <c r="M159" s="4"/>
+      <c r="N159" s="4"/>
+    </row>
+    <row r="160" spans="10:14">
+      <c r="J160" s="4"/>
+      <c r="K160" s="4"/>
+      <c r="L160" s="4"/>
+      <c r="M160" s="4"/>
+      <c r="N160" s="4"/>
+    </row>
+    <row r="161" spans="10:14">
+      <c r="J161" s="4"/>
+      <c r="K161" s="4"/>
+      <c r="L161" s="4"/>
+      <c r="M161" s="4"/>
+      <c r="N161" s="4"/>
+    </row>
+    <row r="162" spans="10:14">
+      <c r="J162" s="4"/>
+      <c r="K162" s="4"/>
+      <c r="L162" s="4"/>
+      <c r="M162" s="4"/>
+      <c r="N162" s="4"/>
+    </row>
+    <row r="163" spans="10:14">
+      <c r="J163" s="4"/>
+      <c r="K163" s="4"/>
+      <c r="L163" s="4"/>
+      <c r="M163" s="4"/>
+      <c r="N163" s="4"/>
+    </row>
+    <row r="164" spans="10:14">
+      <c r="J164" s="4"/>
+      <c r="K164" s="4"/>
+      <c r="L164" s="4"/>
+      <c r="M164" s="4"/>
+      <c r="N164" s="4"/>
+    </row>
+    <row r="165" spans="10:14">
+      <c r="J165" s="4"/>
+      <c r="K165" s="4"/>
+      <c r="L165" s="4"/>
+      <c r="M165" s="4"/>
+      <c r="N165" s="4"/>
+    </row>
+    <row r="166" spans="10:14">
+      <c r="J166" s="4"/>
+      <c r="K166" s="4"/>
+      <c r="L166" s="4"/>
+      <c r="M166" s="4"/>
+      <c r="N166" s="4"/>
+    </row>
+    <row r="167" spans="10:14">
+      <c r="J167" s="4"/>
+      <c r="K167" s="4"/>
+      <c r="L167" s="4"/>
+      <c r="M167" s="4"/>
+      <c r="N167" s="4"/>
+    </row>
+    <row r="168" spans="10:14">
+      <c r="J168" s="4"/>
+      <c r="K168" s="4"/>
+      <c r="L168" s="4"/>
+      <c r="M168" s="4"/>
+      <c r="N168" s="4"/>
+    </row>
+    <row r="169" spans="10:14">
+      <c r="J169" s="4"/>
+      <c r="K169" s="4"/>
+      <c r="L169" s="4"/>
+      <c r="M169" s="4"/>
+      <c r="N169" s="4"/>
+    </row>
+    <row r="170" spans="10:14">
+      <c r="J170" s="4"/>
+      <c r="K170" s="4"/>
+      <c r="L170" s="4"/>
+      <c r="M170" s="4"/>
+      <c r="N170" s="4"/>
+    </row>
+    <row r="171" spans="10:14">
+      <c r="J171" s="4"/>
+      <c r="K171" s="4"/>
+      <c r="L171" s="4"/>
+      <c r="M171" s="4"/>
+      <c r="N171" s="4"/>
+    </row>
+    <row r="172" spans="10:14">
+      <c r="J172" s="4"/>
+      <c r="K172" s="4"/>
+      <c r="L172" s="4"/>
+      <c r="M172" s="4"/>
+      <c r="N172" s="4"/>
+    </row>
+    <row r="173" spans="10:14">
+      <c r="J173" s="4"/>
+      <c r="K173" s="4"/>
+      <c r="L173" s="4"/>
+      <c r="M173" s="4"/>
+      <c r="N173" s="4"/>
+    </row>
+    <row r="174" spans="10:14">
+      <c r="J174" s="4"/>
+      <c r="K174" s="4"/>
+      <c r="L174" s="4"/>
+      <c r="M174" s="4"/>
+      <c r="N174" s="4"/>
+    </row>
+    <row r="175" spans="10:14">
+      <c r="J175" s="4"/>
+      <c r="K175" s="4"/>
+      <c r="L175" s="4"/>
+      <c r="M175" s="4"/>
+      <c r="N175" s="4"/>
+    </row>
+    <row r="176" spans="10:14">
+      <c r="J176" s="4"/>
+      <c r="K176" s="4"/>
+      <c r="L176" s="4"/>
+      <c r="M176" s="4"/>
+      <c r="N176" s="4"/>
+    </row>
+    <row r="177" spans="10:14">
+      <c r="J177" s="4"/>
+      <c r="K177" s="4"/>
+      <c r="L177" s="4"/>
+      <c r="M177" s="4"/>
+      <c r="N177" s="4"/>
+    </row>
+    <row r="178" spans="10:14">
+      <c r="J178" s="4"/>
+      <c r="K178" s="4"/>
+      <c r="L178" s="4"/>
+      <c r="M178" s="4"/>
+      <c r="N178" s="4"/>
+    </row>
+    <row r="179" spans="10:14">
+      <c r="J179" s="4"/>
+      <c r="K179" s="4"/>
+      <c r="L179" s="4"/>
+      <c r="M179" s="4"/>
+      <c r="N179" s="4"/>
+    </row>
+    <row r="180" spans="10:14">
+      <c r="J180" s="4"/>
+      <c r="K180" s="4"/>
+      <c r="L180" s="4"/>
+      <c r="M180" s="4"/>
+      <c r="N180" s="4"/>
+    </row>
+    <row r="181" spans="10:14">
+      <c r="J181" s="4"/>
+      <c r="K181" s="4"/>
+      <c r="L181" s="4"/>
+      <c r="M181" s="4"/>
+      <c r="N181" s="4"/>
+    </row>
+    <row r="182" spans="10:14">
+      <c r="J182" s="4"/>
+      <c r="K182" s="4"/>
+      <c r="L182" s="4"/>
+      <c r="M182" s="4"/>
+      <c r="N182" s="4"/>
+    </row>
+    <row r="183" spans="10:14">
+      <c r="J183" s="4"/>
+      <c r="K183" s="4"/>
+      <c r="L183" s="4"/>
+      <c r="M183" s="4"/>
+      <c r="N183" s="4"/>
+    </row>
+    <row r="184" spans="10:14">
+      <c r="J184" s="4"/>
+      <c r="K184" s="4"/>
+      <c r="L184" s="4"/>
+      <c r="M184" s="4"/>
+      <c r="N184" s="4"/>
+    </row>
+    <row r="185" spans="10:14">
+      <c r="J185" s="4"/>
+      <c r="K185" s="4"/>
+      <c r="L185" s="4"/>
+      <c r="M185" s="4"/>
+      <c r="N185" s="4"/>
+    </row>
+    <row r="186" spans="10:14">
+      <c r="J186" s="4"/>
+      <c r="K186" s="4"/>
+      <c r="L186" s="4"/>
+      <c r="M186" s="4"/>
+      <c r="N186" s="4"/>
+    </row>
+    <row r="187" spans="10:14">
+      <c r="J187" s="4"/>
+      <c r="K187" s="4"/>
+      <c r="L187" s="4"/>
+      <c r="M187" s="4"/>
+      <c r="N187" s="4"/>
+    </row>
+    <row r="188" spans="10:14">
+      <c r="J188" s="4"/>
+      <c r="K188" s="4"/>
+      <c r="L188" s="4"/>
+      <c r="M188" s="4"/>
+      <c r="N188" s="4"/>
+    </row>
+    <row r="189" spans="10:14">
+      <c r="J189" s="4"/>
+      <c r="K189" s="4"/>
+      <c r="L189" s="4"/>
+      <c r="M189" s="4"/>
+      <c r="N189" s="4"/>
+    </row>
+    <row r="190" spans="10:14">
+      <c r="J190" s="4"/>
+      <c r="K190" s="4"/>
+      <c r="L190" s="4"/>
+      <c r="M190" s="4"/>
+      <c r="N190" s="4"/>
+    </row>
+    <row r="191" spans="10:14">
+      <c r="J191" s="4"/>
+      <c r="K191" s="4"/>
+      <c r="L191" s="4"/>
+      <c r="M191" s="4"/>
+      <c r="N191" s="4"/>
+    </row>
+    <row r="192" spans="10:14">
+      <c r="J192" s="4"/>
+      <c r="K192" s="4"/>
+      <c r="L192" s="4"/>
+      <c r="M192" s="4"/>
+      <c r="N192" s="4"/>
+    </row>
+    <row r="193" spans="10:14">
+      <c r="J193" s="4"/>
+      <c r="K193" s="4"/>
+      <c r="L193" s="4"/>
+      <c r="M193" s="4"/>
+      <c r="N193" s="4"/>
+    </row>
+    <row r="194" spans="10:14">
+      <c r="J194" s="4"/>
+      <c r="K194" s="4"/>
+      <c r="L194" s="4"/>
+      <c r="M194" s="4"/>
+      <c r="N194" s="4"/>
+    </row>
+    <row r="195" spans="10:14">
+      <c r="J195" s="4"/>
+      <c r="K195" s="4"/>
+      <c r="L195" s="4"/>
+      <c r="M195" s="4"/>
+      <c r="N195" s="4"/>
+    </row>
+    <row r="196" spans="10:14">
+      <c r="J196" s="4"/>
+      <c r="K196" s="4"/>
+      <c r="L196" s="4"/>
+      <c r="M196" s="4"/>
+      <c r="N196" s="4"/>
+    </row>
+    <row r="197" spans="10:14">
+      <c r="J197" s="4"/>
+      <c r="K197" s="4"/>
+      <c r="L197" s="4"/>
+      <c r="M197" s="4"/>
+      <c r="N197" s="4"/>
+    </row>
+    <row r="198" spans="10:14">
+      <c r="J198" s="4"/>
+      <c r="K198" s="4"/>
+      <c r="L198" s="4"/>
+      <c r="M198" s="4"/>
+      <c r="N198" s="4"/>
+    </row>
+    <row r="199" spans="10:14">
+      <c r="J199" s="4"/>
+      <c r="K199" s="4"/>
+      <c r="L199" s="4"/>
+      <c r="M199" s="4"/>
+      <c r="N199" s="4"/>
+    </row>
+    <row r="200" spans="10:14">
+      <c r="J200" s="4"/>
+      <c r="K200" s="4"/>
+      <c r="L200" s="4"/>
+      <c r="M200" s="4"/>
+      <c r="N200" s="4"/>
+    </row>
+    <row r="201" spans="10:14">
+      <c r="J201" s="4"/>
+      <c r="K201" s="4"/>
+      <c r="L201" s="4"/>
+      <c r="M201" s="4"/>
+      <c r="N201" s="4"/>
+    </row>
+    <row r="202" spans="10:14">
+      <c r="J202" s="4"/>
+      <c r="K202" s="4"/>
+      <c r="L202" s="4"/>
+      <c r="M202" s="4"/>
+      <c r="N202" s="4"/>
+    </row>
+    <row r="203" spans="10:14">
+      <c r="J203" s="4"/>
+      <c r="K203" s="4"/>
+      <c r="L203" s="4"/>
+      <c r="M203" s="4"/>
+      <c r="N203" s="4"/>
+    </row>
+    <row r="204" spans="10:14">
+      <c r="J204" s="4"/>
+      <c r="K204" s="4"/>
+      <c r="L204" s="4"/>
+      <c r="M204" s="4"/>
+      <c r="N204" s="4"/>
+    </row>
+    <row r="205" spans="10:14">
+      <c r="J205" s="4"/>
+      <c r="K205" s="4"/>
+      <c r="L205" s="4"/>
+      <c r="M205" s="4"/>
+      <c r="N205" s="4"/>
+    </row>
+    <row r="206" spans="10:14">
+      <c r="J206" s="4"/>
+      <c r="K206" s="4"/>
+      <c r="L206" s="4"/>
+      <c r="M206" s="4"/>
+      <c r="N206" s="4"/>
+    </row>
+    <row r="207" spans="10:14">
+      <c r="J207" s="4"/>
+      <c r="K207" s="4"/>
+      <c r="L207" s="4"/>
+      <c r="M207" s="4"/>
+      <c r="N207" s="4"/>
+    </row>
+    <row r="208" spans="10:14">
+      <c r="J208" s="4"/>
+      <c r="K208" s="4"/>
+      <c r="L208" s="4"/>
+      <c r="M208" s="4"/>
+      <c r="N208" s="4"/>
+    </row>
+    <row r="209" spans="10:14">
+      <c r="J209" s="4"/>
+      <c r="K209" s="4"/>
+      <c r="L209" s="4"/>
+      <c r="M209" s="4"/>
+      <c r="N209" s="4"/>
+    </row>
+    <row r="210" spans="10:14">
+      <c r="J210" s="4"/>
+      <c r="K210" s="4"/>
+      <c r="L210" s="4"/>
+      <c r="M210" s="4"/>
+      <c r="N210" s="4"/>
+    </row>
+    <row r="211" spans="10:14">
+      <c r="J211" s="4"/>
+      <c r="K211" s="4"/>
+      <c r="L211" s="4"/>
+      <c r="M211" s="4"/>
+      <c r="N211" s="4"/>
+    </row>
+    <row r="212" spans="10:14">
+      <c r="J212" s="4"/>
+      <c r="K212" s="4"/>
+      <c r="L212" s="4"/>
+      <c r="M212" s="4"/>
+      <c r="N212" s="4"/>
+    </row>
+    <row r="213" spans="10:14">
+      <c r="J213" s="4"/>
+      <c r="K213" s="4"/>
+      <c r="L213" s="4"/>
+      <c r="M213" s="4"/>
+      <c r="N213" s="4"/>
+    </row>
+    <row r="214" spans="10:14">
+      <c r="J214" s="4"/>
+      <c r="K214" s="4"/>
+      <c r="L214" s="4"/>
+      <c r="M214" s="4"/>
+      <c r="N214" s="4"/>
+    </row>
+    <row r="215" spans="10:14">
+      <c r="J215" s="4"/>
+      <c r="K215" s="4"/>
+      <c r="L215" s="4"/>
+      <c r="M215" s="4"/>
+      <c r="N215" s="4"/>
+    </row>
+    <row r="216" spans="10:14">
+      <c r="J216" s="4"/>
+      <c r="K216" s="4"/>
+      <c r="L216" s="4"/>
+      <c r="M216" s="4"/>
+      <c r="N216" s="4"/>
+    </row>
+    <row r="217" spans="10:14">
+      <c r="J217" s="4"/>
+      <c r="K217" s="4"/>
+      <c r="L217" s="4"/>
+      <c r="M217" s="4"/>
+      <c r="N217" s="4"/>
+    </row>
+    <row r="218" spans="10:14">
+      <c r="J218" s="4"/>
+      <c r="K218" s="4"/>
+      <c r="L218" s="4"/>
+      <c r="M218" s="4"/>
+      <c r="N218" s="4"/>
+    </row>
+    <row r="219" spans="10:14">
+      <c r="J219" s="4"/>
+      <c r="K219" s="4"/>
+      <c r="L219" s="4"/>
+      <c r="M219" s="4"/>
+      <c r="N219" s="4"/>
+    </row>
+    <row r="220" spans="10:14">
+      <c r="J220" s="4"/>
+      <c r="K220" s="4"/>
+      <c r="L220" s="4"/>
+      <c r="M220" s="4"/>
+      <c r="N220" s="4"/>
+    </row>
+    <row r="221" spans="10:14">
+      <c r="J221" s="4"/>
+      <c r="K221" s="4"/>
+      <c r="L221" s="4"/>
+      <c r="M221" s="4"/>
+      <c r="N221" s="4"/>
+    </row>
+    <row r="222" spans="10:14">
+      <c r="J222" s="4"/>
+      <c r="K222" s="4"/>
+      <c r="L222" s="4"/>
+      <c r="M222" s="4"/>
+      <c r="N222" s="4"/>
+    </row>
+    <row r="223" spans="10:14">
+      <c r="J223" s="4"/>
+      <c r="K223" s="4"/>
+      <c r="L223" s="4"/>
+      <c r="M223" s="4"/>
+      <c r="N223" s="4"/>
+    </row>
+    <row r="224" spans="10:14">
+      <c r="J224" s="4"/>
+      <c r="K224" s="4"/>
+      <c r="L224" s="4"/>
+      <c r="M224" s="4"/>
+      <c r="N224" s="4"/>
+    </row>
+    <row r="225" spans="10:14">
+      <c r="J225" s="4"/>
+      <c r="K225" s="4"/>
+      <c r="L225" s="4"/>
+      <c r="M225" s="4"/>
+      <c r="N225" s="4"/>
+    </row>
+    <row r="226" spans="10:14">
+      <c r="J226" s="4"/>
+      <c r="K226" s="4"/>
+      <c r="L226" s="4"/>
+      <c r="M226" s="4"/>
+      <c r="N226" s="4"/>
+    </row>
+    <row r="227" spans="10:14">
+      <c r="J227" s="4"/>
+      <c r="K227" s="4"/>
+      <c r="L227" s="4"/>
+      <c r="M227" s="4"/>
+      <c r="N227" s="4"/>
+    </row>
+    <row r="228" spans="10:14">
+      <c r="J228" s="4"/>
+      <c r="K228" s="4"/>
+      <c r="L228" s="4"/>
+      <c r="M228" s="4"/>
+      <c r="N228" s="4"/>
+    </row>
+    <row r="229" spans="10:14">
+      <c r="J229" s="4"/>
+      <c r="K229" s="4"/>
+      <c r="L229" s="4"/>
+      <c r="M229" s="4"/>
+      <c r="N229" s="4"/>
+    </row>
+    <row r="230" spans="10:14">
+      <c r="J230" s="4"/>
+      <c r="K230" s="4"/>
+      <c r="L230" s="4"/>
+      <c r="M230" s="4"/>
+      <c r="N230" s="4"/>
+    </row>
+    <row r="231" spans="10:14">
+      <c r="J231" s="4"/>
+      <c r="K231" s="4"/>
+      <c r="L231" s="4"/>
+      <c r="M231" s="4"/>
+      <c r="N231" s="4"/>
+    </row>
+    <row r="232" spans="10:14">
+      <c r="J232" s="4"/>
+      <c r="K232" s="4"/>
+      <c r="L232" s="4"/>
+      <c r="M232" s="4"/>
+      <c r="N232" s="4"/>
+    </row>
+    <row r="233" spans="10:14">
+      <c r="J233" s="4"/>
+      <c r="K233" s="4"/>
+      <c r="L233" s="4"/>
+      <c r="M233" s="4"/>
+      <c r="N233" s="4"/>
+    </row>
+    <row r="234" spans="10:14">
+      <c r="J234" s="4"/>
+      <c r="K234" s="4"/>
+      <c r="L234" s="4"/>
+      <c r="M234" s="4"/>
+      <c r="N234" s="4"/>
+    </row>
+    <row r="235" spans="10:14">
+      <c r="J235" s="4"/>
+      <c r="K235" s="4"/>
+      <c r="L235" s="4"/>
+      <c r="M235" s="4"/>
+      <c r="N235" s="4"/>
+    </row>
+    <row r="236" spans="10:14">
+      <c r="J236" s="4"/>
+      <c r="K236" s="4"/>
+      <c r="L236" s="4"/>
+      <c r="M236" s="4"/>
+      <c r="N236" s="4"/>
+    </row>
+    <row r="237" spans="10:14">
+      <c r="J237" s="4"/>
+      <c r="K237" s="4"/>
+      <c r="L237" s="4"/>
+      <c r="M237" s="4"/>
+      <c r="N237" s="4"/>
+    </row>
+    <row r="238" spans="10:14">
+      <c r="J238" s="4"/>
+      <c r="K238" s="4"/>
+      <c r="L238" s="4"/>
+      <c r="M238" s="4"/>
+      <c r="N238" s="4"/>
+    </row>
+    <row r="239" spans="10:14">
+      <c r="J239" s="4"/>
+      <c r="K239" s="4"/>
+      <c r="L239" s="4"/>
+      <c r="M239" s="4"/>
+      <c r="N239" s="4"/>
+    </row>
+    <row r="240" spans="10:14">
+      <c r="J240" s="4"/>
+      <c r="K240" s="4"/>
+      <c r="L240" s="4"/>
+      <c r="M240" s="4"/>
+      <c r="N240" s="4"/>
+    </row>
+    <row r="241" spans="10:14">
+      <c r="J241" s="4"/>
+      <c r="K241" s="4"/>
+      <c r="L241" s="4"/>
+      <c r="M241" s="4"/>
+      <c r="N241" s="4"/>
+    </row>
+    <row r="242" spans="10:14">
+      <c r="J242" s="4"/>
+      <c r="K242" s="4"/>
+      <c r="L242" s="4"/>
+      <c r="M242" s="4"/>
+      <c r="N242" s="4"/>
+    </row>
+    <row r="243" spans="10:14">
+      <c r="J243" s="4"/>
+      <c r="K243" s="4"/>
+      <c r="L243" s="4"/>
+      <c r="M243" s="4"/>
+      <c r="N243" s="4"/>
+    </row>
+    <row r="244" spans="10:14">
+      <c r="J244" s="4"/>
+      <c r="K244" s="4"/>
+      <c r="L244" s="4"/>
+      <c r="M244" s="4"/>
+      <c r="N244" s="4"/>
+    </row>
+    <row r="245" spans="10:14">
+      <c r="J245" s="4"/>
+      <c r="K245" s="4"/>
+      <c r="L245" s="4"/>
+      <c r="M245" s="4"/>
+      <c r="N245" s="4"/>
+    </row>
+    <row r="246" spans="10:14">
+      <c r="J246" s="4"/>
+      <c r="K246" s="4"/>
+      <c r="L246" s="4"/>
+      <c r="M246" s="4"/>
+      <c r="N246" s="4"/>
+    </row>
+    <row r="247" spans="10:14">
+      <c r="J247" s="4"/>
+      <c r="K247" s="4"/>
+      <c r="L247" s="4"/>
+      <c r="M247" s="4"/>
+      <c r="N247" s="4"/>
+    </row>
+    <row r="248" spans="10:14">
+      <c r="J248" s="4"/>
+      <c r="K248" s="4"/>
+      <c r="L248" s="4"/>
+      <c r="M248" s="4"/>
+      <c r="N248" s="4"/>
+    </row>
+    <row r="249" spans="10:14">
+      <c r="J249" s="4"/>
+      <c r="K249" s="4"/>
+      <c r="L249" s="4"/>
+      <c r="M249" s="4"/>
+      <c r="N249" s="4"/>
+    </row>
+    <row r="250" spans="10:14">
+      <c r="J250" s="4"/>
+      <c r="K250" s="4"/>
+      <c r="L250" s="4"/>
+      <c r="M250" s="4"/>
+      <c r="N250" s="4"/>
+    </row>
+    <row r="251" spans="10:14">
+      <c r="J251" s="4"/>
+      <c r="K251" s="4"/>
+      <c r="L251" s="4"/>
+      <c r="M251" s="4"/>
+      <c r="N251" s="4"/>
+    </row>
+    <row r="252" spans="10:14">
+      <c r="J252" s="4"/>
+      <c r="K252" s="4"/>
+      <c r="L252" s="4"/>
+      <c r="M252" s="4"/>
+      <c r="N252" s="4"/>
+    </row>
+    <row r="253" spans="10:14">
+      <c r="J253" s="4"/>
+      <c r="K253" s="4"/>
+      <c r="L253" s="4"/>
+      <c r="M253" s="4"/>
+      <c r="N253" s="4"/>
+    </row>
+    <row r="254" spans="10:14">
+      <c r="J254" s="4"/>
+      <c r="K254" s="4"/>
+      <c r="L254" s="4"/>
+      <c r="M254" s="4"/>
+      <c r="N254" s="4"/>
+    </row>
+    <row r="255" spans="10:14">
+      <c r="J255" s="4"/>
+      <c r="K255" s="4"/>
+      <c r="L255" s="4"/>
+      <c r="M255" s="4"/>
+      <c r="N255" s="4"/>
+    </row>
+    <row r="256" spans="10:14">
+      <c r="J256" s="4"/>
+      <c r="K256" s="4"/>
+      <c r="L256" s="4"/>
+      <c r="M256" s="4"/>
+      <c r="N256" s="4"/>
+    </row>
+    <row r="257" spans="10:14">
+      <c r="J257" s="4"/>
+      <c r="K257" s="4"/>
+      <c r="L257" s="4"/>
+      <c r="M257" s="4"/>
+      <c r="N257" s="4"/>
+    </row>
+    <row r="258" spans="10:14">
+      <c r="J258" s="4"/>
+      <c r="K258" s="4"/>
+      <c r="L258" s="4"/>
+      <c r="M258" s="4"/>
+      <c r="N258" s="4"/>
+    </row>
+    <row r="259" spans="10:14">
+      <c r="J259" s="4"/>
+      <c r="K259" s="4"/>
+      <c r="L259" s="4"/>
+      <c r="M259" s="4"/>
+      <c r="N259" s="4"/>
+    </row>
+    <row r="260" spans="10:14">
+      <c r="J260" s="4"/>
+      <c r="K260" s="4"/>
+      <c r="L260" s="4"/>
+      <c r="M260" s="4"/>
+      <c r="N260" s="4"/>
+    </row>
+    <row r="261" spans="10:14">
+      <c r="J261" s="4"/>
+      <c r="K261" s="4"/>
+      <c r="L261" s="4"/>
+      <c r="M261" s="4"/>
+      <c r="N261" s="4"/>
+    </row>
+    <row r="262" spans="10:14">
+      <c r="J262" s="4"/>
+      <c r="K262" s="4"/>
+      <c r="L262" s="4"/>
+      <c r="M262" s="4"/>
+      <c r="N262" s="4"/>
+    </row>
+    <row r="263" spans="10:14">
+      <c r="J263" s="4"/>
+      <c r="K263" s="4"/>
+      <c r="L263" s="4"/>
+      <c r="M263" s="4"/>
+      <c r="N263" s="4"/>
+    </row>
+    <row r="264" spans="10:14">
+      <c r="J264" s="4"/>
+      <c r="K264" s="4"/>
+      <c r="L264" s="4"/>
+      <c r="M264" s="4"/>
+      <c r="N264" s="4"/>
+    </row>
+    <row r="265" spans="10:14">
+      <c r="J265" s="4"/>
+      <c r="K265" s="4"/>
+      <c r="L265" s="4"/>
+      <c r="M265" s="4"/>
+      <c r="N265" s="4"/>
+    </row>
+    <row r="266" spans="10:14">
+      <c r="J266" s="4"/>
+      <c r="K266" s="4"/>
+      <c r="L266" s="4"/>
+      <c r="M266" s="4"/>
+      <c r="N266" s="4"/>
+    </row>
+    <row r="267" spans="10:14">
+      <c r="J267" s="4"/>
+      <c r="K267" s="4"/>
+      <c r="L267" s="4"/>
+      <c r="M267" s="4"/>
+      <c r="N267" s="4"/>
+    </row>
+    <row r="268" spans="10:14">
+      <c r="J268" s="4"/>
+      <c r="K268" s="4"/>
+      <c r="L268" s="4"/>
+      <c r="M268" s="4"/>
+      <c r="N268" s="4"/>
+    </row>
+    <row r="269" spans="10:14">
+      <c r="J269" s="4"/>
+      <c r="K269" s="4"/>
+      <c r="L269" s="4"/>
+      <c r="M269" s="4"/>
+      <c r="N269" s="4"/>
+    </row>
+    <row r="270" spans="10:14">
+      <c r="J270" s="4"/>
+      <c r="K270" s="4"/>
+      <c r="L270" s="4"/>
+      <c r="M270" s="4"/>
+      <c r="N270" s="4"/>
+    </row>
+    <row r="271" spans="10:14">
+      <c r="J271" s="4"/>
+      <c r="K271" s="4"/>
+      <c r="L271" s="4"/>
+      <c r="M271" s="4"/>
+      <c r="N271" s="4"/>
+    </row>
+    <row r="272" spans="10:14">
+      <c r="J272" s="4"/>
+      <c r="K272" s="4"/>
+      <c r="L272" s="4"/>
+      <c r="M272" s="4"/>
+      <c r="N272" s="4"/>
+    </row>
+    <row r="273" spans="10:14">
+      <c r="J273" s="4"/>
+      <c r="K273" s="4"/>
+      <c r="L273" s="4"/>
+      <c r="M273" s="4"/>
+      <c r="N273" s="4"/>
+    </row>
+    <row r="274" spans="10:14">
+      <c r="J274" s="4"/>
+      <c r="K274" s="4"/>
+      <c r="L274" s="4"/>
+      <c r="M274" s="4"/>
+      <c r="N274" s="4"/>
+    </row>
+    <row r="275" spans="10:14">
+      <c r="J275" s="4"/>
+      <c r="K275" s="4"/>
+      <c r="L275" s="4"/>
+      <c r="M275" s="4"/>
+      <c r="N275" s="4"/>
+    </row>
+    <row r="276" spans="10:14">
+      <c r="J276" s="4"/>
+      <c r="K276" s="4"/>
+      <c r="L276" s="4"/>
+      <c r="M276" s="4"/>
+      <c r="N276" s="4"/>
+    </row>
+    <row r="277" spans="10:14">
+      <c r="J277" s="4"/>
+      <c r="K277" s="4"/>
+      <c r="L277" s="4"/>
+      <c r="M277" s="4"/>
+      <c r="N277" s="4"/>
+    </row>
+    <row r="278" spans="10:14">
+      <c r="J278" s="4"/>
+      <c r="K278" s="4"/>
+      <c r="L278" s="4"/>
+      <c r="M278" s="4"/>
+      <c r="N278" s="4"/>
+    </row>
+    <row r="279" spans="10:14">
+      <c r="J279" s="4"/>
+      <c r="K279" s="4"/>
+      <c r="L279" s="4"/>
+      <c r="M279" s="4"/>
+      <c r="N279" s="4"/>
+    </row>
+    <row r="280" spans="10:14">
+      <c r="J280" s="4"/>
+      <c r="K280" s="4"/>
+      <c r="L280" s="4"/>
+      <c r="M280" s="4"/>
+      <c r="N280" s="4"/>
+    </row>
+    <row r="281" spans="10:14">
+      <c r="J281" s="4"/>
+      <c r="K281" s="4"/>
+      <c r="L281" s="4"/>
+      <c r="M281" s="4"/>
+      <c r="N281" s="4"/>
+    </row>
+    <row r="282" spans="10:14">
+      <c r="J282" s="4"/>
+      <c r="K282" s="4"/>
+      <c r="L282" s="4"/>
+      <c r="M282" s="4"/>
+      <c r="N282" s="4"/>
+    </row>
+    <row r="283" spans="10:14">
+      <c r="J283" s="4"/>
+      <c r="K283" s="4"/>
+      <c r="L283" s="4"/>
+      <c r="M283" s="4"/>
+      <c r="N283" s="4"/>
+    </row>
+    <row r="284" spans="10:14">
+      <c r="J284" s="4"/>
+      <c r="K284" s="4"/>
+      <c r="L284" s="4"/>
+      <c r="M284" s="4"/>
+      <c r="N284" s="4"/>
+    </row>
+    <row r="285" spans="10:14">
+      <c r="J285" s="4"/>
+      <c r="K285" s="4"/>
+      <c r="L285" s="4"/>
+      <c r="M285" s="4"/>
+      <c r="N285" s="4"/>
+    </row>
+    <row r="286" spans="10:14">
+      <c r="J286" s="4"/>
+      <c r="K286" s="4"/>
+      <c r="L286" s="4"/>
+      <c r="M286" s="4"/>
+      <c r="N286" s="4"/>
+    </row>
+    <row r="287" spans="10:14">
+      <c r="J287" s="4"/>
+      <c r="K287" s="4"/>
+      <c r="L287" s="4"/>
+      <c r="M287" s="4"/>
+      <c r="N287" s="4"/>
+    </row>
+    <row r="288" spans="10:14">
+      <c r="J288" s="4"/>
+      <c r="K288" s="4"/>
+      <c r="L288" s="4"/>
+      <c r="M288" s="4"/>
+      <c r="N288" s="4"/>
+    </row>
+    <row r="289" spans="10:14">
+      <c r="J289" s="4"/>
+      <c r="K289" s="4"/>
+      <c r="L289" s="4"/>
+      <c r="M289" s="4"/>
+      <c r="N289" s="4"/>
+    </row>
+    <row r="290" spans="10:14">
+      <c r="J290" s="4"/>
+      <c r="K290" s="4"/>
+      <c r="L290" s="4"/>
+      <c r="M290" s="4"/>
+      <c r="N290" s="4"/>
+    </row>
+    <row r="291" spans="10:14">
+      <c r="J291" s="4"/>
+      <c r="K291" s="4"/>
+      <c r="L291" s="4"/>
+      <c r="M291" s="4"/>
+      <c r="N291" s="4"/>
+    </row>
+    <row r="292" spans="10:14">
+      <c r="J292" s="4"/>
+      <c r="K292" s="4"/>
+      <c r="L292" s="4"/>
+      <c r="M292" s="4"/>
+      <c r="N292" s="4"/>
+    </row>
+    <row r="293" spans="10:14">
+      <c r="J293" s="4"/>
+      <c r="K293" s="4"/>
+      <c r="L293" s="4"/>
+      <c r="M293" s="4"/>
+      <c r="N293" s="4"/>
+    </row>
+    <row r="294" spans="10:14">
+      <c r="J294" s="4"/>
+      <c r="K294" s="4"/>
+      <c r="L294" s="4"/>
+      <c r="M294" s="4"/>
+      <c r="N294" s="4"/>
+    </row>
+    <row r="295" spans="10:14">
+      <c r="J295" s="4"/>
+      <c r="K295" s="4"/>
+      <c r="L295" s="4"/>
+      <c r="M295" s="4"/>
+      <c r="N295" s="4"/>
+    </row>
+    <row r="296" spans="10:14">
+      <c r="J296" s="4"/>
+      <c r="K296" s="4"/>
+      <c r="L296" s="4"/>
+      <c r="M296" s="4"/>
+      <c r="N296" s="4"/>
+    </row>
+    <row r="297" spans="10:14">
+      <c r="J297" s="4"/>
+      <c r="K297" s="4"/>
+      <c r="L297" s="4"/>
+      <c r="M297" s="4"/>
+      <c r="N297" s="4"/>
+    </row>
+    <row r="298" spans="10:14">
+      <c r="J298" s="4"/>
+      <c r="K298" s="4"/>
+      <c r="L298" s="4"/>
+      <c r="M298" s="4"/>
+      <c r="N298" s="4"/>
+    </row>
+    <row r="299" spans="10:14">
+      <c r="J299" s="4"/>
+      <c r="K299" s="4"/>
+      <c r="L299" s="4"/>
+      <c r="M299" s="4"/>
+      <c r="N299" s="4"/>
+    </row>
+    <row r="300" spans="10:14">
+      <c r="J300" s="4"/>
+      <c r="K300" s="4"/>
+      <c r="L300" s="4"/>
+      <c r="M300" s="4"/>
+      <c r="N300" s="4"/>
+    </row>
+    <row r="301" spans="10:14">
+      <c r="J301" s="4"/>
+      <c r="K301" s="4"/>
+      <c r="L301" s="4"/>
+      <c r="M301" s="4"/>
+      <c r="N301" s="4"/>
+    </row>
+    <row r="302" spans="10:14">
+      <c r="J302" s="4"/>
+      <c r="K302" s="4"/>
+      <c r="L302" s="4"/>
+      <c r="M302" s="4"/>
+      <c r="N302" s="4"/>
+    </row>
+    <row r="303" spans="10:14">
+      <c r="J303" s="4"/>
+      <c r="K303" s="4"/>
+      <c r="L303" s="4"/>
+      <c r="M303" s="4"/>
+      <c r="N303" s="4"/>
+    </row>
+    <row r="304" spans="10:14">
+      <c r="J304" s="4"/>
+      <c r="K304" s="4"/>
+      <c r="L304" s="4"/>
+      <c r="M304" s="4"/>
+      <c r="N304" s="4"/>
+    </row>
+    <row r="305" spans="10:14">
+      <c r="J305" s="4"/>
+      <c r="K305" s="4"/>
+      <c r="L305" s="4"/>
+      <c r="M305" s="4"/>
+      <c r="N305" s="4"/>
+    </row>
+    <row r="306" spans="10:14">
+      <c r="J306" s="4"/>
+      <c r="K306" s="4"/>
+      <c r="L306" s="4"/>
+      <c r="M306" s="4"/>
+      <c r="N306" s="4"/>
+    </row>
+    <row r="307" spans="10:14">
+      <c r="J307" s="4"/>
+      <c r="K307" s="4"/>
+      <c r="L307" s="4"/>
+      <c r="M307" s="4"/>
+      <c r="N307" s="4"/>
+    </row>
+    <row r="308" spans="10:14">
+      <c r="J308" s="4"/>
+      <c r="K308" s="4"/>
+      <c r="L308" s="4"/>
+      <c r="M308" s="4"/>
+      <c r="N308" s="4"/>
+    </row>
+    <row r="309" spans="10:14">
+      <c r="J309" s="4"/>
+      <c r="K309" s="4"/>
+      <c r="L309" s="4"/>
+      <c r="M309" s="4"/>
+      <c r="N309" s="4"/>
+    </row>
+    <row r="310" spans="10:14">
+      <c r="J310" s="4"/>
+      <c r="K310" s="4"/>
+      <c r="L310" s="4"/>
+      <c r="M310" s="4"/>
+      <c r="N310" s="4"/>
+    </row>
+    <row r="311" spans="10:14">
+      <c r="J311" s="4"/>
+      <c r="K311" s="4"/>
+      <c r="L311" s="4"/>
+      <c r="M311" s="4"/>
+      <c r="N311" s="4"/>
+    </row>
+    <row r="312" spans="10:14">
+      <c r="J312" s="4"/>
+      <c r="K312" s="4"/>
+      <c r="L312" s="4"/>
+      <c r="M312" s="4"/>
+      <c r="N312" s="4"/>
+    </row>
+    <row r="313" spans="10:14">
+      <c r="J313" s="4"/>
+      <c r="K313" s="4"/>
+      <c r="L313" s="4"/>
+      <c r="M313" s="4"/>
+      <c r="N313" s="4"/>
+    </row>
+    <row r="314" spans="10:14">
+      <c r="J314" s="4"/>
+      <c r="K314" s="4"/>
+      <c r="L314" s="4"/>
+      <c r="M314" s="4"/>
+      <c r="N314" s="4"/>
+    </row>
+    <row r="315" spans="10:14">
+      <c r="J315" s="4"/>
+      <c r="K315" s="4"/>
+      <c r="L315" s="4"/>
+      <c r="M315" s="4"/>
+      <c r="N315" s="4"/>
+    </row>
+    <row r="316" spans="10:14">
+      <c r="J316" s="4"/>
+      <c r="K316" s="4"/>
+      <c r="L316" s="4"/>
+      <c r="M316" s="4"/>
+      <c r="N316" s="4"/>
+    </row>
+    <row r="317" spans="10:14">
+      <c r="J317" s="4"/>
+      <c r="K317" s="4"/>
+      <c r="L317" s="4"/>
+      <c r="M317" s="4"/>
+      <c r="N317" s="4"/>
+    </row>
+    <row r="318" spans="10:14">
+      <c r="J318" s="4"/>
+      <c r="K318" s="4"/>
+      <c r="L318" s="4"/>
+      <c r="M318" s="4"/>
+      <c r="N318" s="4"/>
+    </row>
+    <row r="319" spans="10:14">
+      <c r="J319" s="4"/>
+      <c r="K319" s="4"/>
+      <c r="L319" s="4"/>
+      <c r="M319" s="4"/>
+      <c r="N319" s="4"/>
+    </row>
+    <row r="320" spans="10:14">
+      <c r="J320" s="4"/>
+      <c r="K320" s="4"/>
+      <c r="L320" s="4"/>
+      <c r="M320" s="4"/>
+      <c r="N320" s="4"/>
+    </row>
+    <row r="321" spans="10:14">
+      <c r="J321" s="4"/>
+      <c r="K321" s="4"/>
+      <c r="L321" s="4"/>
+      <c r="M321" s="4"/>
+      <c r="N321" s="4"/>
+    </row>
+    <row r="322" spans="10:14">
+      <c r="J322" s="4"/>
+      <c r="K322" s="4"/>
+      <c r="L322" s="4"/>
+      <c r="M322" s="4"/>
+      <c r="N322" s="4"/>
+    </row>
+    <row r="323" spans="10:14">
+      <c r="J323" s="4"/>
+      <c r="K323" s="4"/>
+      <c r="L323" s="4"/>
+      <c r="M323" s="4"/>
+      <c r="N323" s="4"/>
+    </row>
+    <row r="324" spans="10:14">
+      <c r="J324" s="4"/>
+      <c r="K324" s="4"/>
+      <c r="L324" s="4"/>
+      <c r="M324" s="4"/>
+      <c r="N324" s="4"/>
+    </row>
+    <row r="325" spans="10:14">
+      <c r="J325" s="4"/>
+      <c r="K325" s="4"/>
+      <c r="L325" s="4"/>
+      <c r="M325" s="4"/>
+      <c r="N325" s="4"/>
+    </row>
+    <row r="326" spans="10:14">
+      <c r="J326" s="4"/>
+      <c r="K326" s="4"/>
+      <c r="L326" s="4"/>
+      <c r="M326" s="4"/>
+      <c r="N326" s="4"/>
+    </row>
+    <row r="327" spans="10:14">
+      <c r="J327" s="4"/>
+      <c r="K327" s="4"/>
+      <c r="L327" s="4"/>
+      <c r="M327" s="4"/>
+      <c r="N327" s="4"/>
+    </row>
+    <row r="328" spans="10:14">
+      <c r="J328" s="4"/>
+      <c r="K328" s="4"/>
+      <c r="L328" s="4"/>
+      <c r="M328" s="4"/>
+      <c r="N328" s="4"/>
+    </row>
+    <row r="329" spans="10:14">
+      <c r="J329" s="4"/>
+      <c r="K329" s="4"/>
+      <c r="L329" s="4"/>
+      <c r="M329" s="4"/>
+      <c r="N329" s="4"/>
+    </row>
+    <row r="330" spans="10:14">
+      <c r="J330" s="4"/>
+      <c r="K330" s="4"/>
+      <c r="L330" s="4"/>
+      <c r="M330" s="4"/>
+      <c r="N330" s="4"/>
+    </row>
+    <row r="331" spans="10:14">
+      <c r="J331" s="4"/>
+      <c r="K331" s="4"/>
+      <c r="L331" s="4"/>
+      <c r="M331" s="4"/>
+      <c r="N331" s="4"/>
+    </row>
+    <row r="332" spans="10:14">
+      <c r="J332" s="4"/>
+      <c r="K332" s="4"/>
+      <c r="L332" s="4"/>
+      <c r="M332" s="4"/>
+      <c r="N332" s="4"/>
+    </row>
+    <row r="333" spans="10:14">
+      <c r="J333" s="4"/>
+      <c r="K333" s="4"/>
+      <c r="L333" s="4"/>
+      <c r="M333" s="4"/>
+      <c r="N333" s="4"/>
+    </row>
+    <row r="334" spans="10:14">
+      <c r="J334" s="4"/>
+      <c r="K334" s="4"/>
+      <c r="L334" s="4"/>
+      <c r="M334" s="4"/>
+      <c r="N334" s="4"/>
+    </row>
+    <row r="335" spans="10:14">
+      <c r="J335" s="4"/>
+      <c r="K335" s="4"/>
+      <c r="L335" s="4"/>
+      <c r="M335" s="4"/>
+      <c r="N335" s="4"/>
+    </row>
+    <row r="336" spans="10:14">
+      <c r="J336" s="4"/>
+      <c r="K336" s="4"/>
+      <c r="L336" s="4"/>
+      <c r="M336" s="4"/>
+      <c r="N336" s="4"/>
+    </row>
+    <row r="337" spans="10:14">
+      <c r="J337" s="4"/>
+      <c r="K337" s="4"/>
+      <c r="L337" s="4"/>
+      <c r="M337" s="4"/>
+      <c r="N337" s="4"/>
+    </row>
+    <row r="338" spans="10:14">
+      <c r="J338" s="4"/>
+      <c r="K338" s="4"/>
+      <c r="L338" s="4"/>
+      <c r="M338" s="4"/>
+      <c r="N338" s="4"/>
+    </row>
+    <row r="339" spans="10:14">
+      <c r="J339" s="4"/>
+      <c r="K339" s="4"/>
+      <c r="L339" s="4"/>
+      <c r="M339" s="4"/>
+      <c r="N339" s="4"/>
+    </row>
+    <row r="340" spans="10:14">
+      <c r="J340" s="4"/>
+      <c r="K340" s="4"/>
+      <c r="L340" s="4"/>
+      <c r="M340" s="4"/>
+      <c r="N340" s="4"/>
+    </row>
+    <row r="341" spans="10:14">
+      <c r="J341" s="4"/>
+      <c r="K341" s="4"/>
+      <c r="L341" s="4"/>
+      <c r="M341" s="4"/>
+      <c r="N341" s="4"/>
+    </row>
+    <row r="342" spans="10:14">
+      <c r="J342" s="4"/>
+      <c r="K342" s="4"/>
+      <c r="L342" s="4"/>
+      <c r="M342" s="4"/>
+      <c r="N342" s="4"/>
+    </row>
+    <row r="343" spans="10:14">
+      <c r="J343" s="4"/>
+      <c r="K343" s="4"/>
+      <c r="L343" s="4"/>
+      <c r="M343" s="4"/>
+      <c r="N343" s="4"/>
+    </row>
+    <row r="344" spans="10:14">
+      <c r="J344" s="4"/>
+      <c r="K344" s="4"/>
+      <c r="L344" s="4"/>
+      <c r="M344" s="4"/>
+      <c r="N344" s="4"/>
+    </row>
+    <row r="345" spans="10:14">
+      <c r="J345" s="4"/>
+      <c r="K345" s="4"/>
+      <c r="L345" s="4"/>
+      <c r="M345" s="4"/>
+      <c r="N345" s="4"/>
+    </row>
+    <row r="346" spans="10:14">
+      <c r="J346" s="4"/>
+      <c r="K346" s="4"/>
+      <c r="L346" s="4"/>
+      <c r="M346" s="4"/>
+      <c r="N346" s="4"/>
+    </row>
+    <row r="347" spans="10:14">
+      <c r="J347" s="4"/>
+      <c r="K347" s="4"/>
+      <c r="L347" s="4"/>
+      <c r="M347" s="4"/>
+      <c r="N347" s="4"/>
+    </row>
+    <row r="348" spans="10:14">
+      <c r="J348" s="4"/>
+      <c r="K348" s="4"/>
+      <c r="L348" s="4"/>
+      <c r="M348" s="4"/>
+      <c r="N348" s="4"/>
+    </row>
+    <row r="349" spans="10:14">
+      <c r="J349" s="4"/>
+      <c r="K349" s="4"/>
+      <c r="L349" s="4"/>
+      <c r="M349" s="4"/>
+      <c r="N349" s="4"/>
+    </row>
+    <row r="350" spans="10:14">
+      <c r="J350" s="4"/>
+      <c r="K350" s="4"/>
+      <c r="L350" s="4"/>
+      <c r="M350" s="4"/>
+      <c r="N350" s="4"/>
+    </row>
+    <row r="351" spans="10:14">
+      <c r="J351" s="4"/>
+      <c r="K351" s="4"/>
+      <c r="L351" s="4"/>
+      <c r="M351" s="4"/>
+      <c r="N351" s="4"/>
+    </row>
+    <row r="352" spans="10:14">
+      <c r="J352" s="4"/>
+      <c r="K352" s="4"/>
+      <c r="L352" s="4"/>
+      <c r="M352" s="4"/>
+      <c r="N352" s="4"/>
+    </row>
+    <row r="353" spans="10:14">
+      <c r="J353" s="4"/>
+      <c r="K353" s="4"/>
+      <c r="L353" s="4"/>
+      <c r="M353" s="4"/>
+      <c r="N353" s="4"/>
+    </row>
+    <row r="354" spans="10:14">
+      <c r="J354" s="4"/>
+      <c r="K354" s="4"/>
+      <c r="L354" s="4"/>
+      <c r="M354" s="4"/>
+      <c r="N354" s="4"/>
+    </row>
+    <row r="355" spans="10:14">
+      <c r="J355" s="4"/>
+      <c r="K355" s="4"/>
+      <c r="L355" s="4"/>
+      <c r="M355" s="4"/>
+      <c r="N355" s="4"/>
+    </row>
+    <row r="356" spans="10:14">
+      <c r="J356" s="4"/>
+      <c r="K356" s="4"/>
+      <c r="L356" s="4"/>
+      <c r="M356" s="4"/>
+      <c r="N356" s="4"/>
+    </row>
+    <row r="357" spans="10:14">
+      <c r="J357" s="4"/>
+      <c r="K357" s="4"/>
+      <c r="L357" s="4"/>
+      <c r="M357" s="4"/>
+      <c r="N357" s="4"/>
+    </row>
+    <row r="358" spans="10:14">
+      <c r="J358" s="4"/>
+      <c r="K358" s="4"/>
+      <c r="L358" s="4"/>
+      <c r="M358" s="4"/>
+      <c r="N358" s="4"/>
+    </row>
+    <row r="359" spans="10:14">
+      <c r="J359" s="4"/>
+      <c r="K359" s="4"/>
+      <c r="L359" s="4"/>
+      <c r="M359" s="4"/>
+      <c r="N359" s="4"/>
+    </row>
+    <row r="360" spans="10:14">
+      <c r="J360" s="4"/>
+      <c r="K360" s="4"/>
+      <c r="L360" s="4"/>
+      <c r="M360" s="4"/>
+      <c r="N360" s="4"/>
+    </row>
+    <row r="361" spans="10:14">
+      <c r="J361" s="4"/>
+      <c r="K361" s="4"/>
+      <c r="L361" s="4"/>
+      <c r="M361" s="4"/>
+      <c r="N361" s="4"/>
+    </row>
+    <row r="362" spans="10:14">
+      <c r="J362" s="4"/>
+      <c r="K362" s="4"/>
+      <c r="L362" s="4"/>
+      <c r="M362" s="4"/>
+      <c r="N362" s="4"/>
+    </row>
+    <row r="363" spans="10:14">
+      <c r="J363" s="4"/>
+      <c r="K363" s="4"/>
+      <c r="L363" s="4"/>
+      <c r="M363" s="4"/>
+      <c r="N363" s="4"/>
+    </row>
+    <row r="364" spans="10:14">
+      <c r="J364" s="4"/>
+      <c r="K364" s="4"/>
+      <c r="L364" s="4"/>
+      <c r="M364" s="4"/>
+      <c r="N364" s="4"/>
+    </row>
+    <row r="365" spans="10:14">
+      <c r="J365" s="4"/>
+      <c r="K365" s="4"/>
+      <c r="L365" s="4"/>
+      <c r="M365" s="4"/>
+      <c r="N365" s="4"/>
+    </row>
+    <row r="366" spans="10:14">
+      <c r="J366" s="4"/>
+      <c r="K366" s="4"/>
+      <c r="L366" s="4"/>
+      <c r="M366" s="4"/>
+      <c r="N366" s="4"/>
+    </row>
+    <row r="367" spans="10:14">
+      <c r="J367" s="4"/>
+      <c r="K367" s="4"/>
+      <c r="L367" s="4"/>
+      <c r="M367" s="4"/>
+      <c r="N367" s="4"/>
+    </row>
+    <row r="368" spans="10:14">
+      <c r="J368" s="4"/>
+      <c r="K368" s="4"/>
+      <c r="L368" s="4"/>
+      <c r="M368" s="4"/>
+      <c r="N368" s="4"/>
+    </row>
+    <row r="369" spans="10:14">
+      <c r="J369" s="4"/>
+      <c r="K369" s="4"/>
+      <c r="L369" s="4"/>
+      <c r="M369" s="4"/>
+      <c r="N369" s="4"/>
+    </row>
+    <row r="370" spans="10:14">
+      <c r="J370" s="4"/>
+      <c r="K370" s="4"/>
+      <c r="L370" s="4"/>
+      <c r="M370" s="4"/>
+      <c r="N370" s="4"/>
+    </row>
+    <row r="371" spans="10:14">
+      <c r="J371" s="4"/>
+      <c r="K371" s="4"/>
+      <c r="L371" s="4"/>
+      <c r="M371" s="4"/>
+      <c r="N371" s="4"/>
+    </row>
+    <row r="372" spans="10:14">
+      <c r="J372" s="4"/>
+      <c r="K372" s="4"/>
+      <c r="L372" s="4"/>
+      <c r="M372" s="4"/>
+      <c r="N372" s="4"/>
+    </row>
+    <row r="373" spans="10:14">
+      <c r="J373" s="4"/>
+      <c r="K373" s="4"/>
+      <c r="L373" s="4"/>
+      <c r="M373" s="4"/>
+      <c r="N373" s="4"/>
+    </row>
+    <row r="374" spans="10:14">
+      <c r="J374" s="4"/>
+      <c r="K374" s="4"/>
+      <c r="L374" s="4"/>
+      <c r="M374" s="4"/>
+      <c r="N374" s="4"/>
+    </row>
+    <row r="375" spans="10:14">
+      <c r="J375" s="4"/>
+      <c r="K375" s="4"/>
+      <c r="L375" s="4"/>
+      <c r="M375" s="4"/>
+      <c r="N375" s="4"/>
+    </row>
+    <row r="376" spans="10:14">
+      <c r="J376" s="4"/>
+      <c r="K376" s="4"/>
+      <c r="L376" s="4"/>
+      <c r="M376" s="4"/>
+      <c r="N376" s="4"/>
+    </row>
+    <row r="377" spans="10:14">
+      <c r="J377" s="4"/>
+      <c r="K377" s="4"/>
+      <c r="L377" s="4"/>
+      <c r="M377" s="4"/>
+      <c r="N377" s="4"/>
+    </row>
+    <row r="378" spans="10:14">
+      <c r="J378" s="4"/>
+      <c r="K378" s="4"/>
+      <c r="L378" s="4"/>
+      <c r="M378" s="4"/>
+      <c r="N378" s="4"/>
+    </row>
+    <row r="379" spans="10:14">
+      <c r="J379" s="4"/>
+      <c r="K379" s="4"/>
+      <c r="L379" s="4"/>
+      <c r="M379" s="4"/>
+      <c r="N379" s="4"/>
+    </row>
+    <row r="380" spans="10:14">
+      <c r="J380" s="4"/>
+      <c r="K380" s="4"/>
+      <c r="L380" s="4"/>
+      <c r="M380" s="4"/>
+      <c r="N380" s="4"/>
+    </row>
+    <row r="381" spans="10:14">
+      <c r="J381" s="4"/>
+      <c r="K381" s="4"/>
+      <c r="L381" s="4"/>
+      <c r="M381" s="4"/>
+      <c r="N381" s="4"/>
+    </row>
+    <row r="382" spans="10:14">
+      <c r="J382" s="4"/>
+      <c r="K382" s="4"/>
+      <c r="L382" s="4"/>
+      <c r="M382" s="4"/>
+      <c r="N382" s="4"/>
+    </row>
+    <row r="383" spans="10:14">
+      <c r="J383" s="4"/>
+      <c r="K383" s="4"/>
+      <c r="L383" s="4"/>
+      <c r="M383" s="4"/>
+      <c r="N383" s="4"/>
+    </row>
+    <row r="384" spans="10:14">
+      <c r="J384" s="4"/>
+      <c r="K384" s="4"/>
+      <c r="L384" s="4"/>
+      <c r="M384" s="4"/>
+      <c r="N384" s="4"/>
+    </row>
+    <row r="385" spans="10:14">
+      <c r="J385" s="4"/>
+      <c r="K385" s="4"/>
+      <c r="L385" s="4"/>
+      <c r="M385" s="4"/>
+      <c r="N385" s="4"/>
+    </row>
+    <row r="386" spans="10:14">
+      <c r="J386" s="4"/>
+      <c r="K386" s="4"/>
+      <c r="L386" s="4"/>
+      <c r="M386" s="4"/>
+      <c r="N386" s="4"/>
+    </row>
+    <row r="387" spans="10:14">
+      <c r="J387" s="4"/>
+      <c r="K387" s="4"/>
+      <c r="L387" s="4"/>
+      <c r="M387" s="4"/>
+      <c r="N387" s="4"/>
+    </row>
+    <row r="388" spans="10:14">
+      <c r="J388" s="4"/>
+      <c r="K388" s="4"/>
+      <c r="L388" s="4"/>
+      <c r="M388" s="4"/>
+      <c r="N388" s="4"/>
+    </row>
+    <row r="389" spans="10:14">
+      <c r="J389" s="4"/>
+      <c r="K389" s="4"/>
+      <c r="L389" s="4"/>
+      <c r="M389" s="4"/>
+      <c r="N389" s="4"/>
+    </row>
+    <row r="390" spans="10:14">
+      <c r="J390" s="4"/>
+      <c r="K390" s="4"/>
+      <c r="L390" s="4"/>
+      <c r="M390" s="4"/>
+      <c r="N390" s="4"/>
+    </row>
+    <row r="391" spans="10:14">
+      <c r="J391" s="4"/>
+      <c r="K391" s="4"/>
+      <c r="L391" s="4"/>
+      <c r="M391" s="4"/>
+      <c r="N391" s="4"/>
+    </row>
+    <row r="392" spans="10:14">
+      <c r="J392" s="4"/>
+      <c r="K392" s="4"/>
+      <c r="L392" s="4"/>
+      <c r="M392" s="4"/>
+      <c r="N392" s="4"/>
+    </row>
+    <row r="393" spans="10:14">
+      <c r="J393" s="4"/>
+      <c r="K393" s="4"/>
+      <c r="L393" s="4"/>
+      <c r="M393" s="4"/>
+      <c r="N393" s="4"/>
+    </row>
+    <row r="394" spans="10:14">
+      <c r="J394" s="4"/>
+      <c r="K394" s="4"/>
+      <c r="L394" s="4"/>
+      <c r="M394" s="4"/>
+      <c r="N394" s="4"/>
+    </row>
+    <row r="395" spans="10:14">
+      <c r="J395" s="4"/>
+      <c r="K395" s="4"/>
+      <c r="L395" s="4"/>
+      <c r="M395" s="4"/>
+      <c r="N395" s="4"/>
+    </row>
+    <row r="396" spans="10:14">
+      <c r="J396" s="4"/>
+      <c r="K396" s="4"/>
+      <c r="L396" s="4"/>
+      <c r="M396" s="4"/>
+      <c r="N396" s="4"/>
+    </row>
+    <row r="397" spans="10:14">
+      <c r="J397" s="4"/>
+      <c r="K397" s="4"/>
+      <c r="L397" s="4"/>
+      <c r="M397" s="4"/>
+      <c r="N397" s="4"/>
+    </row>
+    <row r="398" spans="10:14">
+      <c r="J398" s="4"/>
+      <c r="K398" s="4"/>
+      <c r="L398" s="4"/>
+      <c r="M398" s="4"/>
+      <c r="N398" s="4"/>
+    </row>
+    <row r="399" spans="10:14">
+      <c r="J399" s="4"/>
+      <c r="K399" s="4"/>
+      <c r="L399" s="4"/>
+      <c r="M399" s="4"/>
+      <c r="N399" s="4"/>
+    </row>
+    <row r="400" spans="10:14">
+      <c r="J400" s="4"/>
+      <c r="K400" s="4"/>
+      <c r="L400" s="4"/>
+      <c r="M400" s="4"/>
+      <c r="N400" s="4"/>
+    </row>
+    <row r="401" spans="10:14">
+      <c r="J401" s="4"/>
+      <c r="K401" s="4"/>
+      <c r="L401" s="4"/>
+      <c r="M401" s="4"/>
+      <c r="N401" s="4"/>
+    </row>
+    <row r="402" spans="10:14">
+      <c r="J402" s="4"/>
+      <c r="K402" s="4"/>
+      <c r="L402" s="4"/>
+      <c r="M402" s="4"/>
+      <c r="N402" s="4"/>
+    </row>
+    <row r="403" spans="10:14">
+      <c r="J403" s="4"/>
+      <c r="K403" s="4"/>
+      <c r="L403" s="4"/>
+      <c r="M403" s="4"/>
+      <c r="N403" s="4"/>
+    </row>
+    <row r="404" spans="10:14">
+      <c r="J404" s="4"/>
+      <c r="K404" s="4"/>
+      <c r="L404" s="4"/>
+      <c r="M404" s="4"/>
+      <c r="N404" s="4"/>
+    </row>
+    <row r="405" spans="10:14">
+      <c r="J405" s="4"/>
+      <c r="K405" s="4"/>
+      <c r="L405" s="4"/>
+      <c r="M405" s="4"/>
+      <c r="N405" s="4"/>
+    </row>
+    <row r="406" spans="10:14">
+      <c r="J406" s="4"/>
+      <c r="K406" s="4"/>
+      <c r="L406" s="4"/>
+      <c r="M406" s="4"/>
+      <c r="N406" s="4"/>
+    </row>
+    <row r="407" spans="10:14">
+      <c r="J407" s="4"/>
+      <c r="K407" s="4"/>
+      <c r="L407" s="4"/>
+      <c r="M407" s="4"/>
+      <c r="N407" s="4"/>
+    </row>
+    <row r="408" spans="10:14">
+      <c r="J408" s="4"/>
+      <c r="K408" s="4"/>
+      <c r="L408" s="4"/>
+      <c r="M408" s="4"/>
+      <c r="N408" s="4"/>
+    </row>
+    <row r="409" spans="10:14">
+      <c r="J409" s="4"/>
+      <c r="K409" s="4"/>
+      <c r="L409" s="4"/>
+      <c r="M409" s="4"/>
+      <c r="N409" s="4"/>
+    </row>
+    <row r="410" spans="10:14">
+      <c r="J410" s="4"/>
+      <c r="K410" s="4"/>
+      <c r="L410" s="4"/>
+      <c r="M410" s="4"/>
+      <c r="N410" s="4"/>
+    </row>
+    <row r="411" spans="10:14">
+      <c r="J411" s="4"/>
+      <c r="K411" s="4"/>
+      <c r="L411" s="4"/>
+      <c r="M411" s="4"/>
+      <c r="N411" s="4"/>
+    </row>
+    <row r="412" spans="10:14">
+      <c r="J412" s="4"/>
+      <c r="K412" s="4"/>
+      <c r="L412" s="4"/>
+      <c r="M412" s="4"/>
+      <c r="N412" s="4"/>
+    </row>
+    <row r="413" spans="10:14">
+      <c r="J413" s="4"/>
+      <c r="K413" s="4"/>
+      <c r="L413" s="4"/>
+      <c r="M413" s="4"/>
+      <c r="N413" s="4"/>
+    </row>
+    <row r="414" spans="10:14">
+      <c r="J414" s="4"/>
+      <c r="K414" s="4"/>
+      <c r="L414" s="4"/>
+      <c r="M414" s="4"/>
+      <c r="N414" s="4"/>
+    </row>
+    <row r="415" spans="10:14">
+      <c r="J415" s="4"/>
+      <c r="K415" s="4"/>
+      <c r="L415" s="4"/>
+      <c r="M415" s="4"/>
+      <c r="N415" s="4"/>
+    </row>
+    <row r="416" spans="10:14">
+      <c r="J416" s="4"/>
+      <c r="K416" s="4"/>
+      <c r="L416" s="4"/>
+      <c r="M416" s="4"/>
+      <c r="N416" s="4"/>
+    </row>
+    <row r="417" spans="10:14">
+      <c r="J417" s="4"/>
+      <c r="K417" s="4"/>
+      <c r="L417" s="4"/>
+      <c r="M417" s="4"/>
+      <c r="N417" s="4"/>
+    </row>
+    <row r="418" spans="10:14">
+      <c r="J418" s="4"/>
+      <c r="K418" s="4"/>
+      <c r="L418" s="4"/>
+      <c r="M418" s="4"/>
+      <c r="N418" s="4"/>
+    </row>
+    <row r="419" spans="10:14">
+      <c r="J419" s="4"/>
+      <c r="K419" s="4"/>
+      <c r="L419" s="4"/>
+      <c r="M419" s="4"/>
+      <c r="N419" s="4"/>
+    </row>
+    <row r="420" spans="10:14">
+      <c r="J420" s="4"/>
+      <c r="K420" s="4"/>
+      <c r="L420" s="4"/>
+      <c r="M420" s="4"/>
+      <c r="N420" s="4"/>
+    </row>
+    <row r="421" spans="10:14">
+      <c r="J421" s="4"/>
+      <c r="K421" s="4"/>
+      <c r="L421" s="4"/>
+      <c r="M421" s="4"/>
+      <c r="N421" s="4"/>
+    </row>
+    <row r="422" spans="10:14">
+      <c r="J422" s="4"/>
+      <c r="K422" s="4"/>
+      <c r="L422" s="4"/>
+      <c r="M422" s="4"/>
+      <c r="N422" s="4"/>
+    </row>
+    <row r="423" spans="10:14">
+      <c r="J423" s="4"/>
+      <c r="K423" s="4"/>
+      <c r="L423" s="4"/>
+      <c r="M423" s="4"/>
+      <c r="N423" s="4"/>
+    </row>
+    <row r="424" spans="10:14">
+      <c r="J424" s="4"/>
+      <c r="K424" s="4"/>
+      <c r="L424" s="4"/>
+      <c r="M424" s="4"/>
+      <c r="N424" s="4"/>
+    </row>
+    <row r="425" spans="10:14">
+      <c r="J425" s="4"/>
+      <c r="K425" s="4"/>
+      <c r="L425" s="4"/>
+      <c r="M425" s="4"/>
+      <c r="N425" s="4"/>
+    </row>
+    <row r="426" spans="10:14">
+      <c r="J426" s="4"/>
+      <c r="K426" s="4"/>
+      <c r="L426" s="4"/>
+      <c r="M426" s="4"/>
+      <c r="N426" s="4"/>
+    </row>
+    <row r="427" spans="10:14">
+      <c r="J427" s="4"/>
+      <c r="K427" s="4"/>
+      <c r="L427" s="4"/>
+      <c r="M427" s="4"/>
+      <c r="N427" s="4"/>
+    </row>
+    <row r="428" spans="10:14">
+      <c r="J428" s="4"/>
+      <c r="K428" s="4"/>
+      <c r="L428" s="4"/>
+      <c r="M428" s="4"/>
+      <c r="N428" s="4"/>
+    </row>
+    <row r="429" spans="10:14">
+      <c r="J429" s="4"/>
+      <c r="K429" s="4"/>
+      <c r="L429" s="4"/>
+      <c r="M429" s="4"/>
+      <c r="N429" s="4"/>
+    </row>
+    <row r="430" spans="10:14">
+      <c r="J430" s="4"/>
+      <c r="K430" s="4"/>
+      <c r="L430" s="4"/>
+      <c r="M430" s="4"/>
+      <c r="N430" s="4"/>
+    </row>
+    <row r="431" spans="10:14">
+      <c r="J431" s="4"/>
+      <c r="K431" s="4"/>
+      <c r="L431" s="4"/>
+      <c r="M431" s="4"/>
+      <c r="N431" s="4"/>
+    </row>
+    <row r="432" spans="10:14">
+      <c r="J432" s="4"/>
+      <c r="K432" s="4"/>
+      <c r="L432" s="4"/>
+      <c r="M432" s="4"/>
+      <c r="N432" s="4"/>
+    </row>
+    <row r="433" spans="10:14">
+      <c r="J433" s="4"/>
+      <c r="K433" s="4"/>
+      <c r="L433" s="4"/>
+      <c r="M433" s="4"/>
+      <c r="N433" s="4"/>
+    </row>
+    <row r="434" spans="10:14">
+      <c r="J434" s="4"/>
+      <c r="K434" s="4"/>
+      <c r="L434" s="4"/>
+      <c r="M434" s="4"/>
+      <c r="N434" s="4"/>
+    </row>
+    <row r="435" spans="10:14">
+      <c r="J435" s="4"/>
+      <c r="K435" s="4"/>
+      <c r="L435" s="4"/>
+      <c r="M435" s="4"/>
+      <c r="N435" s="4"/>
+    </row>
+    <row r="436" spans="10:14">
+      <c r="J436" s="4"/>
+      <c r="K436" s="4"/>
+      <c r="L436" s="4"/>
+      <c r="M436" s="4"/>
+      <c r="N436" s="4"/>
+    </row>
+    <row r="437" spans="10:14">
+      <c r="J437" s="4"/>
+      <c r="K437" s="4"/>
+      <c r="L437" s="4"/>
+      <c r="M437" s="4"/>
+      <c r="N437" s="4"/>
+    </row>
+    <row r="438" spans="10:14">
+      <c r="J438" s="4"/>
+      <c r="K438" s="4"/>
+      <c r="L438" s="4"/>
+      <c r="M438" s="4"/>
+      <c r="N438" s="4"/>
+    </row>
+    <row r="439" spans="10:14">
+      <c r="J439" s="4"/>
+      <c r="K439" s="4"/>
+      <c r="L439" s="4"/>
+      <c r="M439" s="4"/>
+      <c r="N439" s="4"/>
+    </row>
+    <row r="440" spans="10:14">
+      <c r="J440" s="4"/>
+      <c r="K440" s="4"/>
+      <c r="L440" s="4"/>
+      <c r="M440" s="4"/>
+      <c r="N440" s="4"/>
+    </row>
+    <row r="441" spans="10:14">
+      <c r="J441" s="4"/>
+      <c r="K441" s="4"/>
+      <c r="L441" s="4"/>
+      <c r="M441" s="4"/>
+      <c r="N441" s="4"/>
+    </row>
+    <row r="442" spans="10:14">
+      <c r="J442" s="4"/>
+      <c r="K442" s="4"/>
+      <c r="L442" s="4"/>
+      <c r="M442" s="4"/>
+      <c r="N442" s="4"/>
+    </row>
+    <row r="443" spans="10:14">
+      <c r="J443" s="4"/>
+      <c r="K443" s="4"/>
+      <c r="L443" s="4"/>
+      <c r="M443" s="4"/>
+      <c r="N443" s="4"/>
+    </row>
+    <row r="444" spans="10:14">
+      <c r="J444" s="4"/>
+      <c r="K444" s="4"/>
+      <c r="L444" s="4"/>
+      <c r="M444" s="4"/>
+      <c r="N444" s="4"/>
+    </row>
+    <row r="445" spans="10:14">
+      <c r="J445" s="4"/>
+      <c r="K445" s="4"/>
+      <c r="L445" s="4"/>
+      <c r="M445" s="4"/>
+      <c r="N445" s="4"/>
+    </row>
+    <row r="446" spans="10:14">
+      <c r="J446" s="4"/>
+      <c r="K446" s="4"/>
+      <c r="L446" s="4"/>
+      <c r="M446" s="4"/>
+      <c r="N446" s="4"/>
+    </row>
+    <row r="447" spans="10:14">
+      <c r="J447" s="4"/>
+      <c r="K447" s="4"/>
+      <c r="L447" s="4"/>
+      <c r="M447" s="4"/>
+      <c r="N447" s="4"/>
+    </row>
+    <row r="448" spans="10:14">
+      <c r="J448" s="4"/>
+      <c r="K448" s="4"/>
+      <c r="L448" s="4"/>
+      <c r="M448" s="4"/>
+      <c r="N448" s="4"/>
+    </row>
+    <row r="449" spans="10:14">
+      <c r="J449" s="4"/>
+      <c r="K449" s="4"/>
+      <c r="L449" s="4"/>
+      <c r="M449" s="4"/>
+      <c r="N449" s="4"/>
+    </row>
+    <row r="450" spans="10:14">
+      <c r="J450" s="4"/>
+      <c r="K450" s="4"/>
+      <c r="L450" s="4"/>
+      <c r="M450" s="4"/>
+      <c r="N450" s="4"/>
+    </row>
+    <row r="451" spans="10:14">
+      <c r="J451" s="4"/>
+      <c r="K451" s="4"/>
+      <c r="L451" s="4"/>
+      <c r="M451" s="4"/>
+      <c r="N451" s="4"/>
+    </row>
+    <row r="452" spans="10:14">
+      <c r="J452" s="4"/>
+      <c r="K452" s="4"/>
+      <c r="L452" s="4"/>
+      <c r="M452" s="4"/>
+      <c r="N452" s="4"/>
+    </row>
+    <row r="453" spans="10:14">
+      <c r="J453" s="4"/>
+      <c r="K453" s="4"/>
+      <c r="L453" s="4"/>
+      <c r="M453" s="4"/>
+      <c r="N453" s="4"/>
+    </row>
+    <row r="454" spans="10:14">
+      <c r="J454" s="4"/>
+      <c r="K454" s="4"/>
+      <c r="L454" s="4"/>
+      <c r="M454" s="4"/>
+      <c r="N454" s="4"/>
+    </row>
+    <row r="455" spans="10:14">
+      <c r="J455" s="4"/>
+      <c r="K455" s="4"/>
+      <c r="L455" s="4"/>
+      <c r="M455" s="4"/>
+      <c r="N455" s="4"/>
+    </row>
+    <row r="456" spans="10:14">
+      <c r="J456" s="4"/>
+      <c r="K456" s="4"/>
+      <c r="L456" s="4"/>
+      <c r="M456" s="4"/>
+      <c r="N456" s="4"/>
+    </row>
+    <row r="457" spans="10:14">
+      <c r="J457" s="4"/>
+      <c r="K457" s="4"/>
+      <c r="L457" s="4"/>
+      <c r="M457" s="4"/>
+      <c r="N457" s="4"/>
+    </row>
+    <row r="458" spans="10:14">
+      <c r="J458" s="4"/>
+      <c r="K458" s="4"/>
+      <c r="L458" s="4"/>
+      <c r="M458" s="4"/>
+      <c r="N458" s="4"/>
+    </row>
+    <row r="459" spans="10:14">
+      <c r="J459" s="4"/>
+      <c r="K459" s="4"/>
+      <c r="L459" s="4"/>
+      <c r="M459" s="4"/>
+      <c r="N459" s="4"/>
+    </row>
+    <row r="460" spans="10:14">
+      <c r="J460" s="4"/>
+      <c r="K460" s="4"/>
+      <c r="L460" s="4"/>
+      <c r="M460" s="4"/>
+      <c r="N460" s="4"/>
+    </row>
+    <row r="461" spans="10:14">
+      <c r="J461" s="4"/>
+      <c r="K461" s="4"/>
+      <c r="L461" s="4"/>
+      <c r="M461" s="4"/>
+      <c r="N461" s="4"/>
+    </row>
+    <row r="462" spans="10:14">
+      <c r="J462" s="4"/>
+      <c r="K462" s="4"/>
+      <c r="L462" s="4"/>
+      <c r="M462" s="4"/>
+      <c r="N462" s="4"/>
+    </row>
+    <row r="463" spans="10:14">
+      <c r="J463" s="4"/>
+      <c r="K463" s="4"/>
+      <c r="L463" s="4"/>
+      <c r="M463" s="4"/>
+      <c r="N463" s="4"/>
+    </row>
+    <row r="464" spans="10:14">
+      <c r="J464" s="4"/>
+      <c r="K464" s="4"/>
+      <c r="L464" s="4"/>
+      <c r="M464" s="4"/>
+      <c r="N464" s="4"/>
+    </row>
+    <row r="465" spans="10:14">
+      <c r="J465" s="4"/>
+      <c r="K465" s="4"/>
+      <c r="L465" s="4"/>
+      <c r="M465" s="4"/>
+      <c r="N465" s="4"/>
+    </row>
+    <row r="466" spans="10:14">
+      <c r="J466" s="4"/>
+      <c r="K466" s="4"/>
+      <c r="L466" s="4"/>
+      <c r="M466" s="4"/>
+      <c r="N466" s="4"/>
+    </row>
+    <row r="467" spans="10:14">
+      <c r="J467" s="4"/>
+      <c r="K467" s="4"/>
+      <c r="L467" s="4"/>
+      <c r="M467" s="4"/>
+      <c r="N467" s="4"/>
+    </row>
+    <row r="468" spans="10:14">
+      <c r="J468" s="4"/>
+      <c r="K468" s="4"/>
+      <c r="L468" s="4"/>
+      <c r="M468" s="4"/>
+      <c r="N468" s="4"/>
+    </row>
+    <row r="469" spans="10:14">
+      <c r="J469" s="4"/>
+      <c r="K469" s="4"/>
+      <c r="L469" s="4"/>
+      <c r="M469" s="4"/>
+      <c r="N469" s="4"/>
+    </row>
+    <row r="470" spans="10:14">
+      <c r="J470" s="4"/>
+      <c r="K470" s="4"/>
+      <c r="L470" s="4"/>
+      <c r="M470" s="4"/>
+      <c r="N470" s="4"/>
+    </row>
+    <row r="471" spans="10:14">
+      <c r="J471" s="4"/>
+      <c r="K471" s="4"/>
+      <c r="L471" s="4"/>
+      <c r="M471" s="4"/>
+      <c r="N471" s="4"/>
+    </row>
+    <row r="472" spans="10:14">
+      <c r="J472" s="4"/>
+      <c r="K472" s="4"/>
+      <c r="L472" s="4"/>
+      <c r="M472" s="4"/>
+      <c r="N472" s="4"/>
+    </row>
+    <row r="473" spans="10:14">
+      <c r="J473" s="4"/>
+      <c r="K473" s="4"/>
+      <c r="L473" s="4"/>
+      <c r="M473" s="4"/>
+      <c r="N473" s="4"/>
+    </row>
+    <row r="474" spans="10:14">
+      <c r="J474" s="4"/>
+      <c r="K474" s="4"/>
+      <c r="L474" s="4"/>
+      <c r="M474" s="4"/>
+      <c r="N474" s="4"/>
+    </row>
+    <row r="475" spans="10:14">
+      <c r="J475" s="4"/>
+      <c r="K475" s="4"/>
+      <c r="L475" s="4"/>
+      <c r="M475" s="4"/>
+      <c r="N475" s="4"/>
+    </row>
+    <row r="476" spans="10:14">
+      <c r="J476" s="4"/>
+      <c r="K476" s="4"/>
+      <c r="L476" s="4"/>
+      <c r="M476" s="4"/>
+      <c r="N476" s="4"/>
+    </row>
+    <row r="477" spans="10:14">
+      <c r="J477" s="4"/>
+      <c r="K477" s="4"/>
+      <c r="L477" s="4"/>
+      <c r="M477" s="4"/>
+      <c r="N477" s="4"/>
+    </row>
+    <row r="478" spans="10:14">
+      <c r="J478" s="4"/>
+      <c r="K478" s="4"/>
+      <c r="L478" s="4"/>
+      <c r="M478" s="4"/>
+      <c r="N478" s="4"/>
+    </row>
+    <row r="479" spans="10:14">
+      <c r="J479" s="4"/>
+      <c r="K479" s="4"/>
+      <c r="L479" s="4"/>
+      <c r="M479" s="4"/>
+      <c r="N479" s="4"/>
+    </row>
+    <row r="480" spans="10:14">
+      <c r="J480" s="4"/>
+      <c r="K480" s="4"/>
+      <c r="L480" s="4"/>
+      <c r="M480" s="4"/>
+      <c r="N480" s="4"/>
+    </row>
+    <row r="481" spans="10:14">
+      <c r="J481" s="4"/>
+      <c r="K481" s="4"/>
+      <c r="L481" s="4"/>
+      <c r="M481" s="4"/>
+      <c r="N481" s="4"/>
+    </row>
+    <row r="482" spans="10:14">
+      <c r="J482" s="4"/>
+      <c r="K482" s="4"/>
+      <c r="L482" s="4"/>
+      <c r="M482" s="4"/>
+      <c r="N482" s="4"/>
+    </row>
+    <row r="483" spans="10:14">
+      <c r="J483" s="4"/>
+      <c r="K483" s="4"/>
+      <c r="L483" s="4"/>
+      <c r="M483" s="4"/>
+      <c r="N483" s="4"/>
+    </row>
+    <row r="484" spans="10:14">
+      <c r="J484" s="4"/>
+      <c r="K484" s="4"/>
+      <c r="L484" s="4"/>
+      <c r="M484" s="4"/>
+      <c r="N484" s="4"/>
+    </row>
+    <row r="485" spans="10:14">
+      <c r="J485" s="4"/>
+      <c r="K485" s="4"/>
+      <c r="L485" s="4"/>
+      <c r="M485" s="4"/>
+      <c r="N485" s="4"/>
+    </row>
+    <row r="486" spans="10:14">
+      <c r="J486" s="4"/>
+      <c r="K486" s="4"/>
+      <c r="L486" s="4"/>
+      <c r="M486" s="4"/>
+      <c r="N486" s="4"/>
+    </row>
+    <row r="487" spans="10:14">
+      <c r="J487" s="4"/>
+      <c r="K487" s="4"/>
+      <c r="L487" s="4"/>
+      <c r="M487" s="4"/>
+      <c r="N487" s="4"/>
+    </row>
+    <row r="488" spans="10:14">
+      <c r="J488" s="4"/>
+      <c r="K488" s="4"/>
+      <c r="L488" s="4"/>
+      <c r="M488" s="4"/>
+      <c r="N488" s="4"/>
+    </row>
+    <row r="489" spans="10:14">
+      <c r="J489" s="4"/>
+      <c r="K489" s="4"/>
+      <c r="L489" s="4"/>
+      <c r="M489" s="4"/>
+      <c r="N489" s="4"/>
+    </row>
+    <row r="490" spans="10:14">
+      <c r="J490" s="4"/>
+      <c r="K490" s="4"/>
+      <c r="L490" s="4"/>
+      <c r="M490" s="4"/>
+      <c r="N490" s="4"/>
+    </row>
+    <row r="491" spans="10:14">
+      <c r="J491" s="4"/>
+      <c r="K491" s="4"/>
+      <c r="L491" s="4"/>
+      <c r="M491" s="4"/>
+      <c r="N491" s="4"/>
+    </row>
+    <row r="492" spans="10:14">
+      <c r="J492" s="4"/>
+      <c r="K492" s="4"/>
+      <c r="L492" s="4"/>
+      <c r="M492" s="4"/>
+      <c r="N492" s="4"/>
+    </row>
+    <row r="493" spans="10:14">
+      <c r="J493" s="4"/>
+      <c r="K493" s="4"/>
+      <c r="L493" s="4"/>
+      <c r="M493" s="4"/>
+      <c r="N493" s="4"/>
+    </row>
+    <row r="494" spans="10:14">
+      <c r="J494" s="4"/>
+      <c r="K494" s="4"/>
+      <c r="L494" s="4"/>
+      <c r="M494" s="4"/>
+      <c r="N494" s="4"/>
+    </row>
+    <row r="495" spans="10:14">
+      <c r="J495" s="4"/>
+      <c r="K495" s="4"/>
+      <c r="L495" s="4"/>
+      <c r="M495" s="4"/>
+      <c r="N495" s="4"/>
+    </row>
+    <row r="496" spans="10:14">
+      <c r="J496" s="4"/>
+      <c r="K496" s="4"/>
+      <c r="L496" s="4"/>
+      <c r="M496" s="4"/>
+      <c r="N496" s="4"/>
+    </row>
+    <row r="497" spans="10:14">
+      <c r="J497" s="4"/>
+      <c r="K497" s="4"/>
+      <c r="L497" s="4"/>
+      <c r="M497" s="4"/>
+      <c r="N497" s="4"/>
+    </row>
+    <row r="498" spans="10:14">
+      <c r="J498" s="4"/>
+      <c r="K498" s="4"/>
+      <c r="L498" s="4"/>
+      <c r="M498" s="4"/>
+      <c r="N498" s="4"/>
+    </row>
+    <row r="499" spans="10:14">
+      <c r="J499" s="4"/>
+      <c r="K499" s="4"/>
+      <c r="L499" s="4"/>
+      <c r="M499" s="4"/>
+      <c r="N499" s="4"/>
+    </row>
+    <row r="500" spans="10:14">
+      <c r="J500" s="4"/>
+      <c r="K500" s="4"/>
+      <c r="L500" s="4"/>
+      <c r="M500" s="4"/>
+      <c r="N500" s="4"/>
+    </row>
+    <row r="501" spans="10:14">
+      <c r="J501" s="4"/>
+      <c r="K501" s="4"/>
+      <c r="L501" s="4"/>
+      <c r="M501" s="4"/>
+      <c r="N501" s="4"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -4870,7 +8432,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>Codes!$A$4:$A$5</xm:f>
@@ -4883,6 +8445,12 @@
           </x14:formula1>
           <xm:sqref>F6</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D56A0499-580B-44B2-ACE2-3ED572839C8E}">
+          <x14:formula1>
+            <xm:f>Codes!$L$4:$L$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>J2:N54</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
@@ -4893,7 +8461,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -32545,8 +36113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A2:S252"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -32557,16 +36125,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:19">
-      <c r="D2" s="61" t="s">
+      <c r="D2" s="62" t="s">
         <v>321</v>
       </c>
-      <c r="E2" s="60" t="s">
+      <c r="E2" s="61" t="s">
         <v>322</v>
       </c>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
     </row>
     <row r="3" spans="1:19" s="1" customFormat="1">
       <c r="A3" s="1" t="s">
@@ -32578,7 +36146,7 @@
       <c r="C3" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="D3" s="61"/>
+      <c r="D3" s="62"/>
       <c r="E3" s="1" t="s">
         <v>325</v>
       </c>
@@ -32599,6 +36167,9 @@
       </c>
       <c r="K3" s="11" t="s">
         <v>327</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>957</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -32635,6 +36206,9 @@
       <c r="K4" s="12" t="s">
         <v>333</v>
       </c>
+      <c r="L4" t="s">
+        <v>958</v>
+      </c>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" t="s">
@@ -32669,6 +36243,9 @@
       </c>
       <c r="K5" s="12" t="s">
         <v>264</v>
+      </c>
+      <c r="L5" t="s">
+        <v>959</v>
       </c>
     </row>
     <row r="6" spans="1:19">
